--- a/src/resources/Balanta cumulata_nov_2019.XLSX
+++ b/src/resources/Balanta cumulata_nov_2019.XLSX
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\scheme xsd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\novac\Desktop\Forexx\src\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5298BC8A-80AD-46DF-88F4-140232673A78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5BE95D9-0F04-4CB9-BF48-CE1C06E12866}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pagina 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Pagina 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1347" uniqueCount="1106">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3305,6 +3306,39 @@
   </si>
   <si>
     <t>TOTAL GENERAL:</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Swarit</t>
+  </si>
+  <si>
+    <t>5"</t>
+  </si>
+  <si>
+    <t>Punnet</t>
+  </si>
+  <si>
+    <t>6'1"</t>
+  </si>
+  <si>
+    <t>Swastik</t>
+  </si>
+  <si>
+    <t>5'5"</t>
+  </si>
+  <si>
+    <t>Tejas</t>
+  </si>
+  <si>
+    <t>4'9"</t>
   </si>
 </sst>
 </file>
@@ -3388,7 +3422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3413,13 +3447,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3759,17 +3794,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L699"/>
+  <dimension ref="A1:N699"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A676" workbookViewId="0">
-      <selection activeCell="C706" sqref="C706"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:L51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="8" width="11" customWidth="1"/>
@@ -3778,7 +3813,7 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -3815,8 +3850,9 @@
       <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -3854,39 +3890,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -3924,7 +3960,7 @@
         <v>9280735.0500000007</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3962,7 +3998,7 @@
         <v>9280735.0500000007</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -4000,7 +4036,7 @@
         <v>129762.47</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -4038,7 +4074,7 @@
         <v>4209405.53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>21</v>
       </c>
@@ -4076,7 +4112,7 @@
         <v>2215178.77</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -4114,7 +4150,7 @@
         <v>42566.86</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4152,7 +4188,7 @@
         <v>1139920.82</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -4190,7 +4226,7 @@
         <v>1783250.38</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -4228,7 +4264,7 @@
         <v>441473.03</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -4266,23 +4302,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -4320,7 +4356,7 @@
         <v>1838892.29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -4358,7 +4394,7 @@
         <v>1838892.29</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -4396,7 +4432,7 @@
         <v>1478569.51</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -4434,11 +4470,11 @@
         <v>360322.78</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="9"/>
       <c r="C20" s="3">
         <v>805458.53</v>
       </c>
@@ -4470,39 +4506,39 @@
         <v>11800450.15</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
@@ -4540,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -4578,7 +4614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -4616,23 +4652,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
@@ -4670,7 +4706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -4708,7 +4744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -4746,7 +4782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>52</v>
       </c>
@@ -4784,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>54</v>
       </c>
@@ -4822,7 +4858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>55</v>
       </c>
@@ -4860,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
@@ -4898,23 +4934,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>58</v>
       </c>
@@ -4952,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>60</v>
       </c>
@@ -4990,7 +5026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>61</v>
       </c>
@@ -5028,23 +5064,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
@@ -5082,7 +5118,7 @@
         <v>288921.58</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>64</v>
       </c>
@@ -5120,7 +5156,7 @@
         <v>288921.58</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>66</v>
       </c>
@@ -5158,7 +5194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>67</v>
       </c>
@@ -5196,23 +5232,23 @@
         <v>288921.58</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>69</v>
       </c>
@@ -5250,7 +5286,7 @@
         <v>1852529.37</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>71</v>
       </c>
@@ -5288,7 +5324,7 @@
         <v>1736837.74</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>73</v>
       </c>
@@ -5326,7 +5362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>74</v>
       </c>
@@ -5364,7 +5400,7 @@
         <v>1736837.74</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>76</v>
       </c>
@@ -5402,7 +5438,7 @@
         <v>115691.63</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>78</v>
       </c>
@@ -5440,11 +5476,11 @@
         <v>115691.63</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B50" s="11"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="3">
         <v>3513492.16</v>
       </c>
@@ -5476,39 +5512,39 @@
         <v>2141450.9500000002</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="8"/>
-      <c r="L51" s="8"/>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="8"/>
-      <c r="L52" s="8"/>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>81</v>
       </c>
@@ -5546,7 +5582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>83</v>
       </c>
@@ -5584,7 +5620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>85</v>
       </c>
@@ -5622,7 +5658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
@@ -5660,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>87</v>
       </c>
@@ -5698,7 +5734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>89</v>
       </c>
@@ -5736,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>90</v>
       </c>
@@ -5774,7 +5810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>91</v>
       </c>
@@ -5812,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>93</v>
       </c>
@@ -5850,7 +5886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>94</v>
       </c>
@@ -5888,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>96</v>
       </c>
@@ -5926,7 +5962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>97</v>
       </c>
@@ -5964,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>98</v>
       </c>
@@ -6002,7 +6038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>100</v>
       </c>
@@ -6040,7 +6076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>101</v>
       </c>
@@ -6078,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>103</v>
       </c>
@@ -6116,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>105</v>
       </c>
@@ -6154,7 +6190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>106</v>
       </c>
@@ -6192,23 +6228,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="8"/>
-      <c r="L71" s="8"/>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>107</v>
       </c>
@@ -6246,7 +6282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>109</v>
       </c>
@@ -6284,7 +6320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>111</v>
       </c>
@@ -6322,7 +6358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>112</v>
       </c>
@@ -6360,7 +6396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>113</v>
       </c>
@@ -6398,7 +6434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
@@ -6436,7 +6472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>116</v>
       </c>
@@ -6474,23 +6510,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="8"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="11"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>117</v>
       </c>
@@ -6528,7 +6564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>119</v>
       </c>
@@ -6566,7 +6602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>121</v>
       </c>
@@ -6604,23 +6640,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>122</v>
       </c>
@@ -6658,7 +6694,7 @@
         <v>25112</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>124</v>
       </c>
@@ -6696,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>126</v>
       </c>
@@ -6734,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>127</v>
       </c>
@@ -6772,7 +6808,7 @@
         <v>25112.01</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>129</v>
       </c>
@@ -6810,23 +6846,23 @@
         <v>25112.01</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>130</v>
       </c>
@@ -6864,7 +6900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>132</v>
       </c>
@@ -6902,7 +6938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>133</v>
       </c>
@@ -6940,11 +6976,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="B93" s="11"/>
+      <c r="B93" s="9"/>
       <c r="C93" s="3">
         <v>694502.65</v>
       </c>
@@ -6976,39 +7012,39 @@
         <v>25112.01</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="8"/>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="8"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="11"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11"/>
+      <c r="L95" s="11"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>136</v>
       </c>
@@ -7046,7 +7082,7 @@
         <v>665019.81999999995</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>138</v>
       </c>
@@ -7084,7 +7120,7 @@
         <v>665019.81999999995</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>140</v>
       </c>
@@ -7122,7 +7158,7 @@
         <v>347759.99</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>141</v>
       </c>
@@ -7160,7 +7196,7 @@
         <v>1562.88</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>143</v>
       </c>
@@ -7198,7 +7234,7 @@
         <v>22795.91</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>145</v>
       </c>
@@ -7236,7 +7272,7 @@
         <v>7446.05</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>147</v>
       </c>
@@ -7274,7 +7310,7 @@
         <v>2144.4299999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>149</v>
       </c>
@@ -7312,7 +7348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>151</v>
       </c>
@@ -7350,7 +7386,7 @@
         <v>2907.54</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>153</v>
       </c>
@@ -7388,7 +7424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>155</v>
       </c>
@@ -7426,7 +7462,7 @@
         <v>6337.85</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>157</v>
       </c>
@@ -7464,7 +7500,7 @@
         <v>7892.11</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>159</v>
       </c>
@@ -7502,7 +7538,7 @@
         <v>5648.98</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>161</v>
       </c>
@@ -7540,7 +7576,7 @@
         <v>283146.21000000002</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>163</v>
       </c>
@@ -7578,7 +7614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>165</v>
       </c>
@@ -7616,7 +7652,7 @@
         <v>4122.7700000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>167</v>
       </c>
@@ -7654,7 +7690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>169</v>
       </c>
@@ -7692,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>171</v>
       </c>
@@ -7730,7 +7766,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>173</v>
       </c>
@@ -7768,7 +7804,7 @@
         <v>3160.26</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>175</v>
       </c>
@@ -7806,7 +7842,7 @@
         <v>317259.83</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>176</v>
       </c>
@@ -7844,7 +7880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>178</v>
       </c>
@@ -7882,7 +7918,7 @@
         <v>885.95</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>179</v>
       </c>
@@ -7920,7 +7956,7 @@
         <v>6337.91</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>180</v>
       </c>
@@ -7958,7 +7994,7 @@
         <v>5731.13</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>181</v>
       </c>
@@ -7996,7 +8032,7 @@
         <v>1893.85</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>182</v>
       </c>
@@ -8034,7 +8070,7 @@
         <v>5172.0200000000004</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>183</v>
       </c>
@@ -8072,7 +8108,7 @@
         <v>247.43</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>184</v>
       </c>
@@ -8110,7 +8146,7 @@
         <v>9714.81</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>185</v>
       </c>
@@ -8148,7 +8184,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>186</v>
       </c>
@@ -8186,7 +8222,7 @@
         <v>16763.38</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>187</v>
       </c>
@@ -8224,7 +8260,7 @@
         <v>262388.77</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>188</v>
       </c>
@@ -8262,7 +8298,7 @@
         <v>3716.38</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>189</v>
       </c>
@@ -8300,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>191</v>
       </c>
@@ -8338,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>192</v>
       </c>
@@ -8376,7 +8412,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>193</v>
       </c>
@@ -8414,7 +8450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>195</v>
       </c>
@@ -8452,23 +8488,23 @@
         <v>2308.1799999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134" s="8"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="I134" s="8"/>
-      <c r="J134" s="8"/>
-      <c r="K134" s="8"/>
-      <c r="L134" s="8"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A134" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="11"/>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11"/>
+      <c r="G134" s="11"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11"/>
+      <c r="L134" s="11"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>196</v>
       </c>
@@ -8506,7 +8542,7 @@
         <v>168592.18</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>198</v>
       </c>
@@ -8544,7 +8580,7 @@
         <v>168592.18</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>200</v>
       </c>
@@ -8582,7 +8618,7 @@
         <v>168592.18</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>201</v>
       </c>
@@ -8620,23 +8656,23 @@
         <v>168592.18</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139" s="8"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="I139" s="8"/>
-      <c r="J139" s="8"/>
-      <c r="K139" s="8"/>
-      <c r="L139" s="8"/>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="11"/>
+      <c r="E139" s="11"/>
+      <c r="F139" s="11"/>
+      <c r="G139" s="11"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11"/>
+      <c r="L139" s="11"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>203</v>
       </c>
@@ -8674,7 +8710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>205</v>
       </c>
@@ -8712,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>206</v>
       </c>
@@ -8750,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>207</v>
       </c>
@@ -8788,23 +8824,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="8"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="8"/>
-      <c r="I144" s="8"/>
-      <c r="J144" s="8"/>
-      <c r="K144" s="8"/>
-      <c r="L144" s="8"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A144" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>209</v>
       </c>
@@ -8842,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>211</v>
       </c>
@@ -8880,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>213</v>
       </c>
@@ -8918,7 +8954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>214</v>
       </c>
@@ -8956,7 +8992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>215</v>
       </c>
@@ -8994,7 +9030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>217</v>
       </c>
@@ -9032,7 +9068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>219</v>
       </c>
@@ -9070,7 +9106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>221</v>
       </c>
@@ -9108,7 +9144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>223</v>
       </c>
@@ -9146,7 +9182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>225</v>
       </c>
@@ -9184,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>226</v>
       </c>
@@ -9222,7 +9258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>228</v>
       </c>
@@ -9260,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>230</v>
       </c>
@@ -9298,7 +9334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>232</v>
       </c>
@@ -9336,7 +9372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>234</v>
       </c>
@@ -9374,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>236</v>
       </c>
@@ -9412,7 +9448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>238</v>
       </c>
@@ -9450,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>240</v>
       </c>
@@ -9488,7 +9524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>242</v>
       </c>
@@ -9526,7 +9562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>244</v>
       </c>
@@ -9564,7 +9600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>246</v>
       </c>
@@ -9602,7 +9638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>248</v>
       </c>
@@ -9640,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>250</v>
       </c>
@@ -9678,7 +9714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>251</v>
       </c>
@@ -9716,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>253</v>
       </c>
@@ -9754,7 +9790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>255</v>
       </c>
@@ -9792,7 +9828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>257</v>
       </c>
@@ -9830,7 +9866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>259</v>
       </c>
@@ -9868,7 +9904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>261</v>
       </c>
@@ -9906,23 +9942,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A174" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B174" s="8"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-      <c r="G174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="I174" s="8"/>
-      <c r="J174" s="8"/>
-      <c r="K174" s="8"/>
-      <c r="L174" s="8"/>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A174" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="11"/>
+      <c r="E174" s="11"/>
+      <c r="F174" s="11"/>
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="11"/>
+      <c r="L174" s="11"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>262</v>
       </c>
@@ -9960,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>264</v>
       </c>
@@ -9998,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>266</v>
       </c>
@@ -10036,23 +10072,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B178" s="8"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-      <c r="G178" s="8"/>
-      <c r="H178" s="8"/>
-      <c r="I178" s="8"/>
-      <c r="J178" s="8"/>
-      <c r="K178" s="8"/>
-      <c r="L178" s="8"/>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A178" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>268</v>
       </c>
@@ -10090,7 +10126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>270</v>
       </c>
@@ -10128,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>271</v>
       </c>
@@ -10166,23 +10202,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A182" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-      <c r="G182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="I182" s="8"/>
-      <c r="J182" s="8"/>
-      <c r="K182" s="8"/>
-      <c r="L182" s="8"/>
-    </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="11"/>
+      <c r="E182" s="11"/>
+      <c r="F182" s="11"/>
+      <c r="G182" s="11"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="11"/>
+      <c r="L182" s="11"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>273</v>
       </c>
@@ -10220,7 +10256,7 @@
         <v>2537.96</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>275</v>
       </c>
@@ -10258,7 +10294,7 @@
         <v>2537.96</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>276</v>
       </c>
@@ -10296,7 +10332,7 @@
         <v>2443.54</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>278</v>
       </c>
@@ -10334,23 +10370,23 @@
         <v>94.42</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A187" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B187" s="8"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-      <c r="G187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="I187" s="8"/>
-      <c r="J187" s="8"/>
-      <c r="K187" s="8"/>
-      <c r="L187" s="8"/>
-    </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A187" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="11"/>
+      <c r="E187" s="11"/>
+      <c r="F187" s="11"/>
+      <c r="G187" s="11"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="11"/>
+      <c r="L187" s="11"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>280</v>
       </c>
@@ -10388,7 +10424,7 @@
         <v>307676</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>282</v>
       </c>
@@ -10426,7 +10462,7 @@
         <v>307676</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>283</v>
       </c>
@@ -10464,23 +10500,23 @@
         <v>307676</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A191" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B191" s="8"/>
-      <c r="C191" s="8"/>
-      <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-      <c r="G191" s="8"/>
-      <c r="H191" s="8"/>
-      <c r="I191" s="8"/>
-      <c r="J191" s="8"/>
-      <c r="K191" s="8"/>
-      <c r="L191" s="8"/>
-    </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A191" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11"/>
+      <c r="F191" s="11"/>
+      <c r="G191" s="11"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="11"/>
+      <c r="L191" s="11"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>284</v>
       </c>
@@ -10518,7 +10554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>286</v>
       </c>
@@ -10556,7 +10592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>287</v>
       </c>
@@ -10594,7 +10630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>289</v>
       </c>
@@ -10632,23 +10668,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A196" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B196" s="8"/>
-      <c r="C196" s="8"/>
-      <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-      <c r="G196" s="8"/>
-      <c r="H196" s="8"/>
-      <c r="I196" s="8"/>
-      <c r="J196" s="8"/>
-      <c r="K196" s="8"/>
-      <c r="L196" s="8"/>
-    </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A196" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="11"/>
+      <c r="E196" s="11"/>
+      <c r="F196" s="11"/>
+      <c r="G196" s="11"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="11"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="11"/>
+      <c r="L196" s="11"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>291</v>
       </c>
@@ -10686,7 +10722,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A198" s="1" t="s">
         <v>293</v>
       </c>
@@ -10724,7 +10760,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>295</v>
       </c>
@@ -10762,7 +10798,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>297</v>
       </c>
@@ -10800,23 +10836,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A201" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
-      <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
-      <c r="G201" s="8"/>
-      <c r="H201" s="8"/>
-      <c r="I201" s="8"/>
-      <c r="J201" s="8"/>
-      <c r="K201" s="8"/>
-      <c r="L201" s="8"/>
-    </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A201" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="11"/>
+      <c r="E201" s="11"/>
+      <c r="F201" s="11"/>
+      <c r="G201" s="11"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="11"/>
+      <c r="L201" s="11"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>299</v>
       </c>
@@ -10854,7 +10890,7 @@
         <v>149124.76999999999</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>301</v>
       </c>
@@ -10892,7 +10928,7 @@
         <v>149124.76999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>303</v>
       </c>
@@ -10930,23 +10966,23 @@
         <v>149124.76999999999</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A205" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B205" s="8"/>
-      <c r="C205" s="8"/>
-      <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-      <c r="G205" s="8"/>
-      <c r="H205" s="8"/>
-      <c r="I205" s="8"/>
-      <c r="J205" s="8"/>
-      <c r="K205" s="8"/>
-      <c r="L205" s="8"/>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A205" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205" s="11"/>
+      <c r="C205" s="11"/>
+      <c r="D205" s="11"/>
+      <c r="E205" s="11"/>
+      <c r="F205" s="11"/>
+      <c r="G205" s="11"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+      <c r="J205" s="11"/>
+      <c r="K205" s="11"/>
+      <c r="L205" s="11"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>305</v>
       </c>
@@ -10984,7 +11020,7 @@
         <v>88147</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>307</v>
       </c>
@@ -11022,7 +11058,7 @@
         <v>136435</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>309</v>
       </c>
@@ -11060,7 +11096,7 @@
         <v>136435</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>310</v>
       </c>
@@ -11098,7 +11134,7 @@
         <v>53107</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>312</v>
       </c>
@@ -11136,7 +11172,7 @@
         <v>53107</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>313</v>
       </c>
@@ -11174,7 +11210,7 @@
         <v>12078</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>315</v>
       </c>
@@ -11212,7 +11248,7 @@
         <v>12078</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>316</v>
       </c>
@@ -11250,7 +11286,7 @@
         <v>-113473</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>318</v>
       </c>
@@ -11288,23 +11324,23 @@
         <v>-113473</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A215" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B215" s="8"/>
-      <c r="C215" s="8"/>
-      <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-      <c r="G215" s="8"/>
-      <c r="H215" s="8"/>
-      <c r="I215" s="8"/>
-      <c r="J215" s="8"/>
-      <c r="K215" s="8"/>
-      <c r="L215" s="8"/>
-    </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A215" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215" s="11"/>
+      <c r="C215" s="11"/>
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="11"/>
+      <c r="K215" s="11"/>
+      <c r="L215" s="11"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>319</v>
       </c>
@@ -11342,7 +11378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>321</v>
       </c>
@@ -11380,7 +11416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>323</v>
       </c>
@@ -11418,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>324</v>
       </c>
@@ -11456,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>326</v>
       </c>
@@ -11494,7 +11530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>327</v>
       </c>
@@ -11532,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>329</v>
       </c>
@@ -11570,7 +11606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>330</v>
       </c>
@@ -11608,7 +11644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>332</v>
       </c>
@@ -11646,7 +11682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A225" s="1" t="s">
         <v>333</v>
       </c>
@@ -11684,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A226" s="1" t="s">
         <v>335</v>
       </c>
@@ -11722,7 +11758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A227" s="1" t="s">
         <v>336</v>
       </c>
@@ -11760,23 +11796,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A228" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B228" s="8"/>
-      <c r="C228" s="8"/>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
-      <c r="G228" s="8"/>
-      <c r="H228" s="8"/>
-      <c r="I228" s="8"/>
-      <c r="J228" s="8"/>
-      <c r="K228" s="8"/>
-      <c r="L228" s="8"/>
-    </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A228" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228" s="11"/>
+      <c r="C228" s="11"/>
+      <c r="D228" s="11"/>
+      <c r="E228" s="11"/>
+      <c r="F228" s="11"/>
+      <c r="G228" s="11"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="11"/>
+      <c r="J228" s="11"/>
+      <c r="K228" s="11"/>
+      <c r="L228" s="11"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A229" s="1" t="s">
         <v>338</v>
       </c>
@@ -11814,7 +11850,7 @@
         <v>35522</v>
       </c>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A230" s="1" t="s">
         <v>340</v>
       </c>
@@ -11852,7 +11888,7 @@
         <v>35522</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A231" s="1" t="s">
         <v>341</v>
       </c>
@@ -11890,23 +11926,23 @@
         <v>35522</v>
       </c>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B232" s="8"/>
-      <c r="C232" s="8"/>
-      <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-      <c r="G232" s="8"/>
-      <c r="H232" s="8"/>
-      <c r="I232" s="8"/>
-      <c r="J232" s="8"/>
-      <c r="K232" s="8"/>
-      <c r="L232" s="8"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A232" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232" s="11"/>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="11"/>
+      <c r="F232" s="11"/>
+      <c r="G232" s="11"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="11"/>
+      <c r="J232" s="11"/>
+      <c r="K232" s="11"/>
+      <c r="L232" s="11"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A233" s="1" t="s">
         <v>342</v>
       </c>
@@ -11944,7 +11980,7 @@
         <v>6406</v>
       </c>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
         <v>344</v>
       </c>
@@ -11982,7 +12018,7 @@
         <v>6406</v>
       </c>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A235" s="1" t="s">
         <v>345</v>
       </c>
@@ -12020,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A236" s="1" t="s">
         <v>347</v>
       </c>
@@ -12058,23 +12094,23 @@
         <v>6406</v>
       </c>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A237" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B237" s="8"/>
-      <c r="C237" s="8"/>
-      <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-      <c r="G237" s="8"/>
-      <c r="H237" s="8"/>
-      <c r="I237" s="8"/>
-      <c r="J237" s="8"/>
-      <c r="K237" s="8"/>
-      <c r="L237" s="8"/>
-    </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A237" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237" s="11"/>
+      <c r="C237" s="11"/>
+      <c r="D237" s="11"/>
+      <c r="E237" s="11"/>
+      <c r="F237" s="11"/>
+      <c r="G237" s="11"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11"/>
+      <c r="J237" s="11"/>
+      <c r="K237" s="11"/>
+      <c r="L237" s="11"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A238" s="1" t="s">
         <v>348</v>
       </c>
@@ -12112,7 +12148,7 @@
         <v>139809.67000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
         <v>350</v>
       </c>
@@ -12150,7 +12186,7 @@
         <v>139809.67000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A240" s="1" t="s">
         <v>352</v>
       </c>
@@ -12188,7 +12224,7 @@
         <v>130726.19</v>
       </c>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A241" s="1" t="s">
         <v>353</v>
       </c>
@@ -12226,23 +12262,23 @@
         <v>9083.48</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A242" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B242" s="8"/>
-      <c r="C242" s="8"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8"/>
-      <c r="I242" s="8"/>
-      <c r="J242" s="8"/>
-      <c r="K242" s="8"/>
-      <c r="L242" s="8"/>
-    </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A242" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242" s="11"/>
+      <c r="C242" s="11"/>
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11"/>
+      <c r="K242" s="11"/>
+      <c r="L242" s="11"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A243" s="1" t="s">
         <v>355</v>
       </c>
@@ -12280,7 +12316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A244" s="1" t="s">
         <v>357</v>
       </c>
@@ -12318,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A245" s="1" t="s">
         <v>359</v>
       </c>
@@ -12356,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A246" s="1" t="s">
         <v>360</v>
       </c>
@@ -12394,7 +12430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A247" s="1" t="s">
         <v>361</v>
       </c>
@@ -12432,23 +12468,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A248" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B248" s="8"/>
-      <c r="C248" s="8"/>
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
-      <c r="H248" s="8"/>
-      <c r="I248" s="8"/>
-      <c r="J248" s="8"/>
-      <c r="K248" s="8"/>
-      <c r="L248" s="8"/>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A248" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248" s="11"/>
+      <c r="C248" s="11"/>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="11"/>
+      <c r="J248" s="11"/>
+      <c r="K248" s="11"/>
+      <c r="L248" s="11"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A249" s="1" t="s">
         <v>363</v>
       </c>
@@ -12486,7 +12522,7 @@
         <v>32162.22</v>
       </c>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A250" s="1" t="s">
         <v>365</v>
       </c>
@@ -12524,7 +12560,7 @@
         <v>32162.22</v>
       </c>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A251" s="1" t="s">
         <v>367</v>
       </c>
@@ -12562,7 +12598,7 @@
         <v>29990.720000000001</v>
       </c>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
         <v>369</v>
       </c>
@@ -12600,23 +12636,23 @@
         <v>2171.5</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A253" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B253" s="8"/>
-      <c r="C253" s="8"/>
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-      <c r="G253" s="8"/>
-      <c r="H253" s="8"/>
-      <c r="I253" s="8"/>
-      <c r="J253" s="8"/>
-      <c r="K253" s="8"/>
-      <c r="L253" s="8"/>
-    </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A253" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" s="11"/>
+      <c r="C253" s="11"/>
+      <c r="D253" s="11"/>
+      <c r="E253" s="11"/>
+      <c r="F253" s="11"/>
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11"/>
+      <c r="K253" s="11"/>
+      <c r="L253" s="11"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A254" s="1" t="s">
         <v>371</v>
       </c>
@@ -12654,7 +12690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A255" s="1" t="s">
         <v>373</v>
       </c>
@@ -12692,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A256" s="1" t="s">
         <v>374</v>
       </c>
@@ -12730,7 +12766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A257" s="1" t="s">
         <v>375</v>
       </c>
@@ -12768,23 +12804,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A258" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B258" s="8"/>
-      <c r="C258" s="8"/>
-      <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-      <c r="G258" s="8"/>
-      <c r="H258" s="8"/>
-      <c r="I258" s="8"/>
-      <c r="J258" s="8"/>
-      <c r="K258" s="8"/>
-      <c r="L258" s="8"/>
-    </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A258" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258" s="11"/>
+      <c r="C258" s="11"/>
+      <c r="D258" s="11"/>
+      <c r="E258" s="11"/>
+      <c r="F258" s="11"/>
+      <c r="G258" s="11"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="11"/>
+      <c r="J258" s="11"/>
+      <c r="K258" s="11"/>
+      <c r="L258" s="11"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A259" s="1" t="s">
         <v>376</v>
       </c>
@@ -12822,7 +12858,7 @@
         <v>33340.589999999997</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A260" s="1" t="s">
         <v>378</v>
       </c>
@@ -12860,7 +12896,7 @@
         <v>33340.589999999997</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A261" s="1" t="s">
         <v>379</v>
       </c>
@@ -12898,7 +12934,7 @@
         <v>33325.68</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A262" s="1" t="s">
         <v>380</v>
       </c>
@@ -12936,23 +12972,23 @@
         <v>14.91</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A263" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B263" s="8"/>
-      <c r="C263" s="8"/>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-      <c r="G263" s="8"/>
-      <c r="H263" s="8"/>
-      <c r="I263" s="8"/>
-      <c r="J263" s="8"/>
-      <c r="K263" s="8"/>
-      <c r="L263" s="8"/>
-    </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A263" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B263" s="11"/>
+      <c r="C263" s="11"/>
+      <c r="D263" s="11"/>
+      <c r="E263" s="11"/>
+      <c r="F263" s="11"/>
+      <c r="G263" s="11"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="11"/>
+      <c r="J263" s="11"/>
+      <c r="K263" s="11"/>
+      <c r="L263" s="11"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A264" s="1" t="s">
         <v>381</v>
       </c>
@@ -12990,7 +13026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
         <v>383</v>
       </c>
@@ -13028,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A266" s="1" t="s">
         <v>385</v>
       </c>
@@ -13066,23 +13102,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A267" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B267" s="8"/>
-      <c r="C267" s="8"/>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
-      <c r="G267" s="8"/>
-      <c r="H267" s="8"/>
-      <c r="I267" s="8"/>
-      <c r="J267" s="8"/>
-      <c r="K267" s="8"/>
-      <c r="L267" s="8"/>
-    </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A267" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B267" s="11"/>
+      <c r="C267" s="11"/>
+      <c r="D267" s="11"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11"/>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A268" s="1" t="s">
         <v>386</v>
       </c>
@@ -13120,7 +13156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
         <v>388</v>
       </c>
@@ -13158,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
         <v>389</v>
       </c>
@@ -13196,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
         <v>390</v>
       </c>
@@ -13234,11 +13270,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A272" s="11" t="s">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A272" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B272" s="11"/>
+      <c r="B272" s="9"/>
       <c r="C272" s="3">
         <v>1215538.74</v>
       </c>
@@ -13270,39 +13306,39 @@
         <v>1630985.21</v>
       </c>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A273" s="9" t="s">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A273" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="B273" s="8"/>
-      <c r="C273" s="8"/>
-      <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
-      <c r="G273" s="8"/>
-      <c r="H273" s="8"/>
-      <c r="I273" s="8"/>
-      <c r="J273" s="8"/>
-      <c r="K273" s="8"/>
-      <c r="L273" s="8"/>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A274" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B274" s="8"/>
-      <c r="C274" s="8"/>
-      <c r="D274" s="8"/>
-      <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
-      <c r="G274" s="8"/>
-      <c r="H274" s="8"/>
-      <c r="I274" s="8"/>
-      <c r="J274" s="8"/>
-      <c r="K274" s="8"/>
-      <c r="L274" s="8"/>
-    </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B273" s="11"/>
+      <c r="C273" s="11"/>
+      <c r="D273" s="11"/>
+      <c r="E273" s="11"/>
+      <c r="F273" s="11"/>
+      <c r="G273" s="11"/>
+      <c r="H273" s="11"/>
+      <c r="I273" s="11"/>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A274" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B274" s="11"/>
+      <c r="C274" s="11"/>
+      <c r="D274" s="11"/>
+      <c r="E274" s="11"/>
+      <c r="F274" s="11"/>
+      <c r="G274" s="11"/>
+      <c r="H274" s="11"/>
+      <c r="I274" s="11"/>
+      <c r="J274" s="11"/>
+      <c r="K274" s="11"/>
+      <c r="L274" s="11"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A275" s="1" t="s">
         <v>393</v>
       </c>
@@ -13340,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A276" s="1" t="s">
         <v>395</v>
       </c>
@@ -13378,7 +13414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A277" s="1" t="s">
         <v>397</v>
       </c>
@@ -13416,7 +13452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A278" s="1" t="s">
         <v>398</v>
       </c>
@@ -13454,23 +13490,23 @@
         <v>25.02</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A279" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B279" s="8"/>
-      <c r="C279" s="8"/>
-      <c r="D279" s="8"/>
-      <c r="E279" s="8"/>
-      <c r="F279" s="8"/>
-      <c r="G279" s="8"/>
-      <c r="H279" s="8"/>
-      <c r="I279" s="8"/>
-      <c r="J279" s="8"/>
-      <c r="K279" s="8"/>
-      <c r="L279" s="8"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A279" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B279" s="11"/>
+      <c r="C279" s="11"/>
+      <c r="D279" s="11"/>
+      <c r="E279" s="11"/>
+      <c r="F279" s="11"/>
+      <c r="G279" s="11"/>
+      <c r="H279" s="11"/>
+      <c r="I279" s="11"/>
+      <c r="J279" s="11"/>
+      <c r="K279" s="11"/>
+      <c r="L279" s="11"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A280" s="1" t="s">
         <v>399</v>
       </c>
@@ -13508,7 +13544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A281" s="1" t="s">
         <v>401</v>
       </c>
@@ -13546,7 +13582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A282" s="1" t="s">
         <v>403</v>
       </c>
@@ -13584,7 +13620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A283" s="1" t="s">
         <v>405</v>
       </c>
@@ -13622,7 +13658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A284" s="1" t="s">
         <v>407</v>
       </c>
@@ -13660,23 +13696,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A285" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B285" s="8"/>
-      <c r="C285" s="8"/>
-      <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-      <c r="G285" s="8"/>
-      <c r="H285" s="8"/>
-      <c r="I285" s="8"/>
-      <c r="J285" s="8"/>
-      <c r="K285" s="8"/>
-      <c r="L285" s="8"/>
-    </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A285" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B285" s="11"/>
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11"/>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+      <c r="I285" s="11"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="11"/>
+      <c r="L285" s="11"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A286" s="1" t="s">
         <v>409</v>
       </c>
@@ -13714,7 +13750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A287" s="1" t="s">
         <v>411</v>
       </c>
@@ -13752,7 +13788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A288" s="1" t="s">
         <v>413</v>
       </c>
@@ -13790,7 +13826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A289" s="1" t="s">
         <v>415</v>
       </c>
@@ -13828,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A290" s="1" t="s">
         <v>417</v>
       </c>
@@ -13866,7 +13902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A291" s="1" t="s">
         <v>419</v>
       </c>
@@ -13904,7 +13940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A292" s="1" t="s">
         <v>421</v>
       </c>
@@ -13942,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A293" s="1" t="s">
         <v>423</v>
       </c>
@@ -13980,7 +14016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A294" s="1" t="s">
         <v>425</v>
       </c>
@@ -14018,7 +14054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A295" s="1" t="s">
         <v>427</v>
       </c>
@@ -14056,7 +14092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A296" s="1" t="s">
         <v>429</v>
       </c>
@@ -14094,7 +14130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A297" s="1" t="s">
         <v>431</v>
       </c>
@@ -14132,7 +14168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A298" s="1" t="s">
         <v>433</v>
       </c>
@@ -14170,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A299" s="1" t="s">
         <v>435</v>
       </c>
@@ -14208,7 +14244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A300" s="1" t="s">
         <v>437</v>
       </c>
@@ -14246,23 +14282,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A301" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B301" s="8"/>
-      <c r="C301" s="8"/>
-      <c r="D301" s="8"/>
-      <c r="E301" s="8"/>
-      <c r="F301" s="8"/>
-      <c r="G301" s="8"/>
-      <c r="H301" s="8"/>
-      <c r="I301" s="8"/>
-      <c r="J301" s="8"/>
-      <c r="K301" s="8"/>
-      <c r="L301" s="8"/>
-    </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A301" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B301" s="11"/>
+      <c r="C301" s="11"/>
+      <c r="D301" s="11"/>
+      <c r="E301" s="11"/>
+      <c r="F301" s="11"/>
+      <c r="G301" s="11"/>
+      <c r="H301" s="11"/>
+      <c r="I301" s="11"/>
+      <c r="J301" s="11"/>
+      <c r="K301" s="11"/>
+      <c r="L301" s="11"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A302" s="1" t="s">
         <v>439</v>
       </c>
@@ -14300,7 +14336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A303" s="1" t="s">
         <v>441</v>
       </c>
@@ -14338,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A304" s="1" t="s">
         <v>443</v>
       </c>
@@ -14376,7 +14412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A305" s="1" t="s">
         <v>445</v>
       </c>
@@ -14414,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A306" s="1" t="s">
         <v>447</v>
       </c>
@@ -14452,7 +14488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A307" s="1" t="s">
         <v>448</v>
       </c>
@@ -14490,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A308" s="1" t="s">
         <v>449</v>
       </c>
@@ -14528,23 +14564,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A309" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B309" s="8"/>
-      <c r="C309" s="8"/>
-      <c r="D309" s="8"/>
-      <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
-      <c r="G309" s="8"/>
-      <c r="H309" s="8"/>
-      <c r="I309" s="8"/>
-      <c r="J309" s="8"/>
-      <c r="K309" s="8"/>
-      <c r="L309" s="8"/>
-    </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A309" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B309" s="11"/>
+      <c r="C309" s="11"/>
+      <c r="D309" s="11"/>
+      <c r="E309" s="11"/>
+      <c r="F309" s="11"/>
+      <c r="G309" s="11"/>
+      <c r="H309" s="11"/>
+      <c r="I309" s="11"/>
+      <c r="J309" s="11"/>
+      <c r="K309" s="11"/>
+      <c r="L309" s="11"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A310" s="1" t="s">
         <v>451</v>
       </c>
@@ -14582,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A311" s="1" t="s">
         <v>453</v>
       </c>
@@ -14620,7 +14656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A312" s="1" t="s">
         <v>454</v>
       </c>
@@ -14658,7 +14694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A313" s="1" t="s">
         <v>455</v>
       </c>
@@ -14696,7 +14732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A314" s="1" t="s">
         <v>457</v>
       </c>
@@ -14734,7 +14770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A315" s="1" t="s">
         <v>459</v>
       </c>
@@ -14772,7 +14808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A316" s="1" t="s">
         <v>461</v>
       </c>
@@ -14810,7 +14846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A317" s="1" t="s">
         <v>463</v>
       </c>
@@ -14848,7 +14884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A318" s="1" t="s">
         <v>464</v>
       </c>
@@ -14886,7 +14922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A319" s="1" t="s">
         <v>466</v>
       </c>
@@ -14924,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A320" s="1" t="s">
         <v>467</v>
       </c>
@@ -14962,7 +14998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A321" s="1" t="s">
         <v>469</v>
       </c>
@@ -15000,23 +15036,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A322" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B322" s="8"/>
-      <c r="C322" s="8"/>
-      <c r="D322" s="8"/>
-      <c r="E322" s="8"/>
-      <c r="F322" s="8"/>
-      <c r="G322" s="8"/>
-      <c r="H322" s="8"/>
-      <c r="I322" s="8"/>
-      <c r="J322" s="8"/>
-      <c r="K322" s="8"/>
-      <c r="L322" s="8"/>
-    </row>
-    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A322" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B322" s="11"/>
+      <c r="C322" s="11"/>
+      <c r="D322" s="11"/>
+      <c r="E322" s="11"/>
+      <c r="F322" s="11"/>
+      <c r="G322" s="11"/>
+      <c r="H322" s="11"/>
+      <c r="I322" s="11"/>
+      <c r="J322" s="11"/>
+      <c r="K322" s="11"/>
+      <c r="L322" s="11"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A323" s="1" t="s">
         <v>470</v>
       </c>
@@ -15054,7 +15090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A324" s="1" t="s">
         <v>472</v>
       </c>
@@ -15092,7 +15128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A325" s="1" t="s">
         <v>474</v>
       </c>
@@ -15130,7 +15166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A326" s="1" t="s">
         <v>475</v>
       </c>
@@ -15168,23 +15204,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A327" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B327" s="8"/>
-      <c r="C327" s="8"/>
-      <c r="D327" s="8"/>
-      <c r="E327" s="8"/>
-      <c r="F327" s="8"/>
-      <c r="G327" s="8"/>
-      <c r="H327" s="8"/>
-      <c r="I327" s="8"/>
-      <c r="J327" s="8"/>
-      <c r="K327" s="8"/>
-      <c r="L327" s="8"/>
-    </row>
-    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A327" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B327" s="11"/>
+      <c r="C327" s="11"/>
+      <c r="D327" s="11"/>
+      <c r="E327" s="11"/>
+      <c r="F327" s="11"/>
+      <c r="G327" s="11"/>
+      <c r="H327" s="11"/>
+      <c r="I327" s="11"/>
+      <c r="J327" s="11"/>
+      <c r="K327" s="11"/>
+      <c r="L327" s="11"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A328" s="1" t="s">
         <v>477</v>
       </c>
@@ -15222,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A329" s="1" t="s">
         <v>479</v>
       </c>
@@ -15260,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A330" s="1" t="s">
         <v>480</v>
       </c>
@@ -15298,23 +15334,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A331" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B331" s="8"/>
-      <c r="C331" s="8"/>
-      <c r="D331" s="8"/>
-      <c r="E331" s="8"/>
-      <c r="F331" s="8"/>
-      <c r="G331" s="8"/>
-      <c r="H331" s="8"/>
-      <c r="I331" s="8"/>
-      <c r="J331" s="8"/>
-      <c r="K331" s="8"/>
-      <c r="L331" s="8"/>
-    </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A331" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B331" s="11"/>
+      <c r="C331" s="11"/>
+      <c r="D331" s="11"/>
+      <c r="E331" s="11"/>
+      <c r="F331" s="11"/>
+      <c r="G331" s="11"/>
+      <c r="H331" s="11"/>
+      <c r="I331" s="11"/>
+      <c r="J331" s="11"/>
+      <c r="K331" s="11"/>
+      <c r="L331" s="11"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
         <v>482</v>
       </c>
@@ -15352,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
         <v>484</v>
       </c>
@@ -15390,7 +15426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
         <v>485</v>
       </c>
@@ -15428,7 +15464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
         <v>486</v>
       </c>
@@ -15466,7 +15502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
         <v>487</v>
       </c>
@@ -15504,7 +15540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
         <v>489</v>
       </c>
@@ -15542,7 +15578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
         <v>491</v>
       </c>
@@ -15580,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
         <v>493</v>
       </c>
@@ -15618,7 +15654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
         <v>495</v>
       </c>
@@ -15656,7 +15692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
         <v>497</v>
       </c>
@@ -15694,23 +15730,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A342" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B342" s="8"/>
-      <c r="C342" s="8"/>
-      <c r="D342" s="8"/>
-      <c r="E342" s="8"/>
-      <c r="F342" s="8"/>
-      <c r="G342" s="8"/>
-      <c r="H342" s="8"/>
-      <c r="I342" s="8"/>
-      <c r="J342" s="8"/>
-      <c r="K342" s="8"/>
-      <c r="L342" s="8"/>
-    </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A342" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B342" s="11"/>
+      <c r="C342" s="11"/>
+      <c r="D342" s="11"/>
+      <c r="E342" s="11"/>
+      <c r="F342" s="11"/>
+      <c r="G342" s="11"/>
+      <c r="H342" s="11"/>
+      <c r="I342" s="11"/>
+      <c r="J342" s="11"/>
+      <c r="K342" s="11"/>
+      <c r="L342" s="11"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
         <v>499</v>
       </c>
@@ -15748,7 +15784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
         <v>501</v>
       </c>
@@ -15786,7 +15822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
         <v>502</v>
       </c>
@@ -15824,11 +15860,11 @@
         <v>54.1</v>
       </c>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A346" s="11" t="s">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A346" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="B346" s="11"/>
+      <c r="B346" s="9"/>
       <c r="C346" s="3">
         <v>6420897.9900000002</v>
       </c>
@@ -15860,39 +15896,39 @@
         <v>79.12</v>
       </c>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A347" s="9" t="s">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A347" s="10" t="s">
         <v>504</v>
       </c>
-      <c r="B347" s="8"/>
-      <c r="C347" s="8"/>
-      <c r="D347" s="8"/>
-      <c r="E347" s="8"/>
-      <c r="F347" s="8"/>
-      <c r="G347" s="8"/>
-      <c r="H347" s="8"/>
-      <c r="I347" s="8"/>
-      <c r="J347" s="8"/>
-      <c r="K347" s="8"/>
-      <c r="L347" s="8"/>
-    </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A348" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B348" s="8"/>
-      <c r="C348" s="8"/>
-      <c r="D348" s="8"/>
-      <c r="E348" s="8"/>
-      <c r="F348" s="8"/>
-      <c r="G348" s="8"/>
-      <c r="H348" s="8"/>
-      <c r="I348" s="8"/>
-      <c r="J348" s="8"/>
-      <c r="K348" s="8"/>
-      <c r="L348" s="8"/>
-    </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B347" s="11"/>
+      <c r="C347" s="11"/>
+      <c r="D347" s="11"/>
+      <c r="E347" s="11"/>
+      <c r="F347" s="11"/>
+      <c r="G347" s="11"/>
+      <c r="H347" s="11"/>
+      <c r="I347" s="11"/>
+      <c r="J347" s="11"/>
+      <c r="K347" s="11"/>
+      <c r="L347" s="11"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A348" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B348" s="11"/>
+      <c r="C348" s="11"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="11"/>
+      <c r="F348" s="11"/>
+      <c r="G348" s="11"/>
+      <c r="H348" s="11"/>
+      <c r="I348" s="11"/>
+      <c r="J348" s="11"/>
+      <c r="K348" s="11"/>
+      <c r="L348" s="11"/>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
         <v>505</v>
       </c>
@@ -15930,7 +15966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
         <v>507</v>
       </c>
@@ -15968,7 +16004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
         <v>509</v>
       </c>
@@ -16006,7 +16042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
         <v>511</v>
       </c>
@@ -16044,7 +16080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
         <v>512</v>
       </c>
@@ -16082,7 +16118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
         <v>514</v>
       </c>
@@ -16120,7 +16156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
         <v>515</v>
       </c>
@@ -16158,7 +16194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
         <v>517</v>
       </c>
@@ -16196,7 +16232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
         <v>518</v>
       </c>
@@ -16234,7 +16270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
         <v>519</v>
       </c>
@@ -16272,7 +16308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
         <v>521</v>
       </c>
@@ -16310,7 +16346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
         <v>522</v>
       </c>
@@ -16348,7 +16384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
         <v>523</v>
       </c>
@@ -16386,7 +16422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
         <v>525</v>
       </c>
@@ -16424,7 +16460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
         <v>526</v>
       </c>
@@ -16462,7 +16498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
         <v>527</v>
       </c>
@@ -16500,7 +16536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
         <v>529</v>
       </c>
@@ -16538,7 +16574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
         <v>531</v>
       </c>
@@ -16576,7 +16612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
         <v>532</v>
       </c>
@@ -16614,23 +16650,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A368" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B368" s="8"/>
-      <c r="C368" s="8"/>
-      <c r="D368" s="8"/>
-      <c r="E368" s="8"/>
-      <c r="F368" s="8"/>
-      <c r="G368" s="8"/>
-      <c r="H368" s="8"/>
-      <c r="I368" s="8"/>
-      <c r="J368" s="8"/>
-      <c r="K368" s="8"/>
-      <c r="L368" s="8"/>
-    </row>
-    <row r="369" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A368" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B368" s="11"/>
+      <c r="C368" s="11"/>
+      <c r="D368" s="11"/>
+      <c r="E368" s="11"/>
+      <c r="F368" s="11"/>
+      <c r="G368" s="11"/>
+      <c r="H368" s="11"/>
+      <c r="I368" s="11"/>
+      <c r="J368" s="11"/>
+      <c r="K368" s="11"/>
+      <c r="L368" s="11"/>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
         <v>533</v>
       </c>
@@ -16668,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
         <v>535</v>
       </c>
@@ -16706,7 +16742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
         <v>536</v>
       </c>
@@ -16744,7 +16780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
         <v>538</v>
       </c>
@@ -16782,7 +16818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
         <v>540</v>
       </c>
@@ -16820,7 +16856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
         <v>541</v>
       </c>
@@ -16858,23 +16894,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A375" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B375" s="8"/>
-      <c r="C375" s="8"/>
-      <c r="D375" s="8"/>
-      <c r="E375" s="8"/>
-      <c r="F375" s="8"/>
-      <c r="G375" s="8"/>
-      <c r="H375" s="8"/>
-      <c r="I375" s="8"/>
-      <c r="J375" s="8"/>
-      <c r="K375" s="8"/>
-      <c r="L375" s="8"/>
-    </row>
-    <row r="376" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A375" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B375" s="11"/>
+      <c r="C375" s="11"/>
+      <c r="D375" s="11"/>
+      <c r="E375" s="11"/>
+      <c r="F375" s="11"/>
+      <c r="G375" s="11"/>
+      <c r="H375" s="11"/>
+      <c r="I375" s="11"/>
+      <c r="J375" s="11"/>
+      <c r="K375" s="11"/>
+      <c r="L375" s="11"/>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
         <v>542</v>
       </c>
@@ -16912,7 +16948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
         <v>544</v>
       </c>
@@ -16950,7 +16986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
         <v>545</v>
       </c>
@@ -16988,7 +17024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
         <v>547</v>
       </c>
@@ -17026,7 +17062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
         <v>549</v>
       </c>
@@ -17064,23 +17100,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A381" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B381" s="8"/>
-      <c r="C381" s="8"/>
-      <c r="D381" s="8"/>
-      <c r="E381" s="8"/>
-      <c r="F381" s="8"/>
-      <c r="G381" s="8"/>
-      <c r="H381" s="8"/>
-      <c r="I381" s="8"/>
-      <c r="J381" s="8"/>
-      <c r="K381" s="8"/>
-      <c r="L381" s="8"/>
-    </row>
-    <row r="382" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A381" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B381" s="11"/>
+      <c r="C381" s="11"/>
+      <c r="D381" s="11"/>
+      <c r="E381" s="11"/>
+      <c r="F381" s="11"/>
+      <c r="G381" s="11"/>
+      <c r="H381" s="11"/>
+      <c r="I381" s="11"/>
+      <c r="J381" s="11"/>
+      <c r="K381" s="11"/>
+      <c r="L381" s="11"/>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
         <v>550</v>
       </c>
@@ -17118,7 +17154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
         <v>552</v>
       </c>
@@ -17156,7 +17192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
         <v>553</v>
       </c>
@@ -17194,23 +17230,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A385" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B385" s="8"/>
-      <c r="C385" s="8"/>
-      <c r="D385" s="8"/>
-      <c r="E385" s="8"/>
-      <c r="F385" s="8"/>
-      <c r="G385" s="8"/>
-      <c r="H385" s="8"/>
-      <c r="I385" s="8"/>
-      <c r="J385" s="8"/>
-      <c r="K385" s="8"/>
-      <c r="L385" s="8"/>
-    </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A385" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B385" s="11"/>
+      <c r="C385" s="11"/>
+      <c r="D385" s="11"/>
+      <c r="E385" s="11"/>
+      <c r="F385" s="11"/>
+      <c r="G385" s="11"/>
+      <c r="H385" s="11"/>
+      <c r="I385" s="11"/>
+      <c r="J385" s="11"/>
+      <c r="K385" s="11"/>
+      <c r="L385" s="11"/>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
         <v>554</v>
       </c>
@@ -17248,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
         <v>556</v>
       </c>
@@ -17286,7 +17322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
         <v>557</v>
       </c>
@@ -17324,23 +17360,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A389" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B389" s="8"/>
-      <c r="C389" s="8"/>
-      <c r="D389" s="8"/>
-      <c r="E389" s="8"/>
-      <c r="F389" s="8"/>
-      <c r="G389" s="8"/>
-      <c r="H389" s="8"/>
-      <c r="I389" s="8"/>
-      <c r="J389" s="8"/>
-      <c r="K389" s="8"/>
-      <c r="L389" s="8"/>
-    </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A389" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B389" s="11"/>
+      <c r="C389" s="11"/>
+      <c r="D389" s="11"/>
+      <c r="E389" s="11"/>
+      <c r="F389" s="11"/>
+      <c r="G389" s="11"/>
+      <c r="H389" s="11"/>
+      <c r="I389" s="11"/>
+      <c r="J389" s="11"/>
+      <c r="K389" s="11"/>
+      <c r="L389" s="11"/>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
         <v>558</v>
       </c>
@@ -17378,7 +17414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
         <v>560</v>
       </c>
@@ -17416,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
         <v>561</v>
       </c>
@@ -17454,7 +17490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
         <v>563</v>
       </c>
@@ -17492,23 +17528,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A394" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B394" s="8"/>
-      <c r="C394" s="8"/>
-      <c r="D394" s="8"/>
-      <c r="E394" s="8"/>
-      <c r="F394" s="8"/>
-      <c r="G394" s="8"/>
-      <c r="H394" s="8"/>
-      <c r="I394" s="8"/>
-      <c r="J394" s="8"/>
-      <c r="K394" s="8"/>
-      <c r="L394" s="8"/>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A394" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B394" s="11"/>
+      <c r="C394" s="11"/>
+      <c r="D394" s="11"/>
+      <c r="E394" s="11"/>
+      <c r="F394" s="11"/>
+      <c r="G394" s="11"/>
+      <c r="H394" s="11"/>
+      <c r="I394" s="11"/>
+      <c r="J394" s="11"/>
+      <c r="K394" s="11"/>
+      <c r="L394" s="11"/>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
         <v>565</v>
       </c>
@@ -17546,7 +17582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
         <v>567</v>
       </c>
@@ -17584,7 +17620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
         <v>568</v>
       </c>
@@ -17622,7 +17658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
         <v>569</v>
       </c>
@@ -17660,23 +17696,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A399" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B399" s="8"/>
-      <c r="C399" s="8"/>
-      <c r="D399" s="8"/>
-      <c r="E399" s="8"/>
-      <c r="F399" s="8"/>
-      <c r="G399" s="8"/>
-      <c r="H399" s="8"/>
-      <c r="I399" s="8"/>
-      <c r="J399" s="8"/>
-      <c r="K399" s="8"/>
-      <c r="L399" s="8"/>
-    </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A399" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B399" s="11"/>
+      <c r="C399" s="11"/>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
+      <c r="F399" s="11"/>
+      <c r="G399" s="11"/>
+      <c r="H399" s="11"/>
+      <c r="I399" s="11"/>
+      <c r="J399" s="11"/>
+      <c r="K399" s="11"/>
+      <c r="L399" s="11"/>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
         <v>570</v>
       </c>
@@ -17714,7 +17750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
         <v>572</v>
       </c>
@@ -17752,7 +17788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
         <v>573</v>
       </c>
@@ -17790,23 +17826,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A403" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B403" s="8"/>
-      <c r="C403" s="8"/>
-      <c r="D403" s="8"/>
-      <c r="E403" s="8"/>
-      <c r="F403" s="8"/>
-      <c r="G403" s="8"/>
-      <c r="H403" s="8"/>
-      <c r="I403" s="8"/>
-      <c r="J403" s="8"/>
-      <c r="K403" s="8"/>
-      <c r="L403" s="8"/>
-    </row>
-    <row r="404" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A403" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B403" s="11"/>
+      <c r="C403" s="11"/>
+      <c r="D403" s="11"/>
+      <c r="E403" s="11"/>
+      <c r="F403" s="11"/>
+      <c r="G403" s="11"/>
+      <c r="H403" s="11"/>
+      <c r="I403" s="11"/>
+      <c r="J403" s="11"/>
+      <c r="K403" s="11"/>
+      <c r="L403" s="11"/>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
         <v>574</v>
       </c>
@@ -17844,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
         <v>576</v>
       </c>
@@ -17882,7 +17918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
         <v>578</v>
       </c>
@@ -17920,7 +17956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
         <v>579</v>
       </c>
@@ -17958,7 +17994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
         <v>581</v>
       </c>
@@ -17996,7 +18032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
         <v>583</v>
       </c>
@@ -18034,7 +18070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
         <v>585</v>
       </c>
@@ -18072,7 +18108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
         <v>586</v>
       </c>
@@ -18110,7 +18146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
         <v>588</v>
       </c>
@@ -18148,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
         <v>589</v>
       </c>
@@ -18186,7 +18222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
         <v>591</v>
       </c>
@@ -18224,23 +18260,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A415" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B415" s="8"/>
-      <c r="C415" s="8"/>
-      <c r="D415" s="8"/>
-      <c r="E415" s="8"/>
-      <c r="F415" s="8"/>
-      <c r="G415" s="8"/>
-      <c r="H415" s="8"/>
-      <c r="I415" s="8"/>
-      <c r="J415" s="8"/>
-      <c r="K415" s="8"/>
-      <c r="L415" s="8"/>
-    </row>
-    <row r="416" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A415" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B415" s="11"/>
+      <c r="C415" s="11"/>
+      <c r="D415" s="11"/>
+      <c r="E415" s="11"/>
+      <c r="F415" s="11"/>
+      <c r="G415" s="11"/>
+      <c r="H415" s="11"/>
+      <c r="I415" s="11"/>
+      <c r="J415" s="11"/>
+      <c r="K415" s="11"/>
+      <c r="L415" s="11"/>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
         <v>593</v>
       </c>
@@ -18278,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
         <v>595</v>
       </c>
@@ -18316,7 +18352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
         <v>596</v>
       </c>
@@ -18354,7 +18390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
         <v>597</v>
       </c>
@@ -18392,23 +18428,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A420" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B420" s="8"/>
-      <c r="C420" s="8"/>
-      <c r="D420" s="8"/>
-      <c r="E420" s="8"/>
-      <c r="F420" s="8"/>
-      <c r="G420" s="8"/>
-      <c r="H420" s="8"/>
-      <c r="I420" s="8"/>
-      <c r="J420" s="8"/>
-      <c r="K420" s="8"/>
-      <c r="L420" s="8"/>
-    </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A420" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B420" s="11"/>
+      <c r="C420" s="11"/>
+      <c r="D420" s="11"/>
+      <c r="E420" s="11"/>
+      <c r="F420" s="11"/>
+      <c r="G420" s="11"/>
+      <c r="H420" s="11"/>
+      <c r="I420" s="11"/>
+      <c r="J420" s="11"/>
+      <c r="K420" s="11"/>
+      <c r="L420" s="11"/>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
         <v>598</v>
       </c>
@@ -18446,7 +18482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
         <v>600</v>
       </c>
@@ -18484,7 +18520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
         <v>601</v>
       </c>
@@ -18522,7 +18558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
         <v>602</v>
       </c>
@@ -18560,7 +18596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
         <v>603</v>
       </c>
@@ -18598,23 +18634,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A426" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B426" s="8"/>
-      <c r="C426" s="8"/>
-      <c r="D426" s="8"/>
-      <c r="E426" s="8"/>
-      <c r="F426" s="8"/>
-      <c r="G426" s="8"/>
-      <c r="H426" s="8"/>
-      <c r="I426" s="8"/>
-      <c r="J426" s="8"/>
-      <c r="K426" s="8"/>
-      <c r="L426" s="8"/>
-    </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A426" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B426" s="11"/>
+      <c r="C426" s="11"/>
+      <c r="D426" s="11"/>
+      <c r="E426" s="11"/>
+      <c r="F426" s="11"/>
+      <c r="G426" s="11"/>
+      <c r="H426" s="11"/>
+      <c r="I426" s="11"/>
+      <c r="J426" s="11"/>
+      <c r="K426" s="11"/>
+      <c r="L426" s="11"/>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
         <v>604</v>
       </c>
@@ -18652,7 +18688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
         <v>606</v>
       </c>
@@ -18690,7 +18726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
         <v>607</v>
       </c>
@@ -18728,7 +18764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
         <v>609</v>
       </c>
@@ -18766,7 +18802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
         <v>611</v>
       </c>
@@ -18804,7 +18840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
         <v>613</v>
       </c>
@@ -18842,7 +18878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
         <v>615</v>
       </c>
@@ -18880,7 +18916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
         <v>617</v>
       </c>
@@ -18918,23 +18954,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A435" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B435" s="8"/>
-      <c r="C435" s="8"/>
-      <c r="D435" s="8"/>
-      <c r="E435" s="8"/>
-      <c r="F435" s="8"/>
-      <c r="G435" s="8"/>
-      <c r="H435" s="8"/>
-      <c r="I435" s="8"/>
-      <c r="J435" s="8"/>
-      <c r="K435" s="8"/>
-      <c r="L435" s="8"/>
-    </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A435" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B435" s="11"/>
+      <c r="C435" s="11"/>
+      <c r="D435" s="11"/>
+      <c r="E435" s="11"/>
+      <c r="F435" s="11"/>
+      <c r="G435" s="11"/>
+      <c r="H435" s="11"/>
+      <c r="I435" s="11"/>
+      <c r="J435" s="11"/>
+      <c r="K435" s="11"/>
+      <c r="L435" s="11"/>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
         <v>619</v>
       </c>
@@ -18972,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
         <v>621</v>
       </c>
@@ -19010,7 +19046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
         <v>622</v>
       </c>
@@ -19048,23 +19084,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A439" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B439" s="8"/>
-      <c r="C439" s="8"/>
-      <c r="D439" s="8"/>
-      <c r="E439" s="8"/>
-      <c r="F439" s="8"/>
-      <c r="G439" s="8"/>
-      <c r="H439" s="8"/>
-      <c r="I439" s="8"/>
-      <c r="J439" s="8"/>
-      <c r="K439" s="8"/>
-      <c r="L439" s="8"/>
-    </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A439" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B439" s="11"/>
+      <c r="C439" s="11"/>
+      <c r="D439" s="11"/>
+      <c r="E439" s="11"/>
+      <c r="F439" s="11"/>
+      <c r="G439" s="11"/>
+      <c r="H439" s="11"/>
+      <c r="I439" s="11"/>
+      <c r="J439" s="11"/>
+      <c r="K439" s="11"/>
+      <c r="L439" s="11"/>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
         <v>624</v>
       </c>
@@ -19102,7 +19138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
         <v>626</v>
       </c>
@@ -19140,7 +19176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
         <v>628</v>
       </c>
@@ -19178,23 +19214,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A443" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B443" s="8"/>
-      <c r="C443" s="8"/>
-      <c r="D443" s="8"/>
-      <c r="E443" s="8"/>
-      <c r="F443" s="8"/>
-      <c r="G443" s="8"/>
-      <c r="H443" s="8"/>
-      <c r="I443" s="8"/>
-      <c r="J443" s="8"/>
-      <c r="K443" s="8"/>
-      <c r="L443" s="8"/>
-    </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A443" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B443" s="11"/>
+      <c r="C443" s="11"/>
+      <c r="D443" s="11"/>
+      <c r="E443" s="11"/>
+      <c r="F443" s="11"/>
+      <c r="G443" s="11"/>
+      <c r="H443" s="11"/>
+      <c r="I443" s="11"/>
+      <c r="J443" s="11"/>
+      <c r="K443" s="11"/>
+      <c r="L443" s="11"/>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
         <v>629</v>
       </c>
@@ -19232,7 +19268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
         <v>631</v>
       </c>
@@ -19270,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
         <v>633</v>
       </c>
@@ -19308,7 +19344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
         <v>635</v>
       </c>
@@ -19346,11 +19382,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A448" s="11" t="s">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A448" s="9" t="s">
         <v>636</v>
       </c>
-      <c r="B448" s="11"/>
+      <c r="B448" s="9"/>
       <c r="C448" s="3">
         <v>0</v>
       </c>
@@ -19382,39 +19418,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A449" s="9" t="s">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A449" s="10" t="s">
         <v>637</v>
       </c>
-      <c r="B449" s="8"/>
-      <c r="C449" s="8"/>
-      <c r="D449" s="8"/>
-      <c r="E449" s="8"/>
-      <c r="F449" s="8"/>
-      <c r="G449" s="8"/>
-      <c r="H449" s="8"/>
-      <c r="I449" s="8"/>
-      <c r="J449" s="8"/>
-      <c r="K449" s="8"/>
-      <c r="L449" s="8"/>
-    </row>
-    <row r="450" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A450" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B450" s="8"/>
-      <c r="C450" s="8"/>
-      <c r="D450" s="8"/>
-      <c r="E450" s="8"/>
-      <c r="F450" s="8"/>
-      <c r="G450" s="8"/>
-      <c r="H450" s="8"/>
-      <c r="I450" s="8"/>
-      <c r="J450" s="8"/>
-      <c r="K450" s="8"/>
-      <c r="L450" s="8"/>
-    </row>
-    <row r="451" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B449" s="11"/>
+      <c r="C449" s="11"/>
+      <c r="D449" s="11"/>
+      <c r="E449" s="11"/>
+      <c r="F449" s="11"/>
+      <c r="G449" s="11"/>
+      <c r="H449" s="11"/>
+      <c r="I449" s="11"/>
+      <c r="J449" s="11"/>
+      <c r="K449" s="11"/>
+      <c r="L449" s="11"/>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A450" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B450" s="11"/>
+      <c r="C450" s="11"/>
+      <c r="D450" s="11"/>
+      <c r="E450" s="11"/>
+      <c r="F450" s="11"/>
+      <c r="G450" s="11"/>
+      <c r="H450" s="11"/>
+      <c r="I450" s="11"/>
+      <c r="J450" s="11"/>
+      <c r="K450" s="11"/>
+      <c r="L450" s="11"/>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
         <v>638</v>
       </c>
@@ -19452,7 +19488,7 @@
         <v>1403537.55</v>
       </c>
     </row>
-    <row r="452" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
         <v>640</v>
       </c>
@@ -19490,7 +19526,7 @@
         <v>1403537.55</v>
       </c>
     </row>
-    <row r="453" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A453" s="1" t="s">
         <v>641</v>
       </c>
@@ -19528,7 +19564,7 @@
         <v>142860.99</v>
       </c>
     </row>
-    <row r="454" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A454" s="1" t="s">
         <v>643</v>
       </c>
@@ -19566,7 +19602,7 @@
         <v>1259907</v>
       </c>
     </row>
-    <row r="455" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A455" s="1" t="s">
         <v>645</v>
       </c>
@@ -19604,23 +19640,23 @@
         <v>769.56</v>
       </c>
     </row>
-    <row r="456" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A456" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B456" s="8"/>
-      <c r="C456" s="8"/>
-      <c r="D456" s="8"/>
-      <c r="E456" s="8"/>
-      <c r="F456" s="8"/>
-      <c r="G456" s="8"/>
-      <c r="H456" s="8"/>
-      <c r="I456" s="8"/>
-      <c r="J456" s="8"/>
-      <c r="K456" s="8"/>
-      <c r="L456" s="8"/>
-    </row>
-    <row r="457" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A456" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B456" s="11"/>
+      <c r="C456" s="11"/>
+      <c r="D456" s="11"/>
+      <c r="E456" s="11"/>
+      <c r="F456" s="11"/>
+      <c r="G456" s="11"/>
+      <c r="H456" s="11"/>
+      <c r="I456" s="11"/>
+      <c r="J456" s="11"/>
+      <c r="K456" s="11"/>
+      <c r="L456" s="11"/>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A457" s="1" t="s">
         <v>647</v>
       </c>
@@ -19658,7 +19694,7 @@
         <v>11338999.960000001</v>
       </c>
     </row>
-    <row r="458" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A458" s="1" t="s">
         <v>649</v>
       </c>
@@ -19696,7 +19732,7 @@
         <v>11338999.960000001</v>
       </c>
     </row>
-    <row r="459" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A459" s="1" t="s">
         <v>651</v>
       </c>
@@ -19734,7 +19770,7 @@
         <v>6747701.2300000004</v>
       </c>
     </row>
-    <row r="460" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A460" s="1" t="s">
         <v>653</v>
       </c>
@@ -19772,7 +19808,7 @@
         <v>4591298.7300000004</v>
       </c>
     </row>
-    <row r="461" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A461" s="1" t="s">
         <v>655</v>
       </c>
@@ -19810,7 +19846,7 @@
         <v>4591298.7300000004</v>
       </c>
     </row>
-    <row r="462" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A462" s="1" t="s">
         <v>657</v>
       </c>
@@ -19848,7 +19884,7 @@
         <v>656119.48</v>
       </c>
     </row>
-    <row r="463" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A463" s="1" t="s">
         <v>659</v>
       </c>
@@ -19886,7 +19922,7 @@
         <v>39655.1</v>
       </c>
     </row>
-    <row r="464" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A464" s="1" t="s">
         <v>661</v>
       </c>
@@ -19924,7 +19960,7 @@
         <v>322975.7</v>
       </c>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A465" s="1" t="s">
         <v>663</v>
       </c>
@@ -19962,7 +19998,7 @@
         <v>112082.21</v>
       </c>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A466" s="1" t="s">
         <v>665</v>
       </c>
@@ -20000,7 +20036,7 @@
         <v>20492.63</v>
       </c>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A467" s="1" t="s">
         <v>667</v>
       </c>
@@ -20038,7 +20074,7 @@
         <v>15355.43</v>
       </c>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A468" s="1" t="s">
         <v>669</v>
       </c>
@@ -20076,7 +20112,7 @@
         <v>24465.85</v>
       </c>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A469" s="1" t="s">
         <v>671</v>
       </c>
@@ -20114,7 +20150,7 @@
         <v>3198.11</v>
       </c>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A470" s="1" t="s">
         <v>673</v>
       </c>
@@ -20152,7 +20188,7 @@
         <v>112023.41</v>
       </c>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A471" s="1" t="s">
         <v>675</v>
       </c>
@@ -20190,7 +20226,7 @@
         <v>5871.04</v>
       </c>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A472" s="1" t="s">
         <v>677</v>
       </c>
@@ -20228,7 +20264,7 @@
         <v>161132.01</v>
       </c>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A473" s="1" t="s">
         <v>679</v>
       </c>
@@ -20266,7 +20302,7 @@
         <v>3629785.75</v>
       </c>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A474" s="1" t="s">
         <v>681</v>
       </c>
@@ -20304,7 +20340,7 @@
         <v>3629785.75</v>
       </c>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A475" s="1" t="s">
         <v>683</v>
       </c>
@@ -20342,7 +20378,7 @@
         <v>90345.64</v>
       </c>
     </row>
-    <row r="476" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A476" s="1" t="s">
         <v>685</v>
       </c>
@@ -20380,7 +20416,7 @@
         <v>45781</v>
       </c>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A477" s="1" t="s">
         <v>687</v>
       </c>
@@ -20418,7 +20454,7 @@
         <v>44564.639999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A478" s="1" t="s">
         <v>689</v>
       </c>
@@ -20456,7 +20492,7 @@
         <v>11746</v>
       </c>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A479" s="1" t="s">
         <v>691</v>
       </c>
@@ -20494,7 +20530,7 @@
         <v>11746</v>
       </c>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A480" s="1" t="s">
         <v>693</v>
       </c>
@@ -20532,7 +20568,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A481" s="1" t="s">
         <v>695</v>
       </c>
@@ -20570,7 +20606,7 @@
         <v>41329.85</v>
       </c>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A482" s="1" t="s">
         <v>697</v>
       </c>
@@ -20608,7 +20644,7 @@
         <v>41329.85</v>
       </c>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A483" s="1" t="s">
         <v>699</v>
       </c>
@@ -20646,7 +20682,7 @@
         <v>6747701.2300000004</v>
       </c>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A484" s="1" t="s">
         <v>701</v>
       </c>
@@ -20684,7 +20720,7 @@
         <v>5561529</v>
       </c>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A485" s="1" t="s">
         <v>703</v>
       </c>
@@ -20722,7 +20758,7 @@
         <v>4880033</v>
       </c>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A486" s="1" t="s">
         <v>705</v>
       </c>
@@ -20760,7 +20796,7 @@
         <v>149078</v>
       </c>
     </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A487" s="1" t="s">
         <v>707</v>
       </c>
@@ -20798,7 +20834,7 @@
         <v>18931</v>
       </c>
     </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A488" s="1" t="s">
         <v>709</v>
       </c>
@@ -20836,7 +20872,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A489" s="1" t="s">
         <v>711</v>
       </c>
@@ -20874,7 +20910,7 @@
         <v>234056</v>
       </c>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A490" s="1" t="s">
         <v>713</v>
       </c>
@@ -20912,7 +20948,7 @@
         <v>49600</v>
       </c>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A491" s="1" t="s">
         <v>715</v>
       </c>
@@ -20950,7 +20986,7 @@
         <v>110700</v>
       </c>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A492" s="1" t="s">
         <v>717</v>
       </c>
@@ -20988,7 +21024,7 @@
         <v>117372</v>
       </c>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A493" s="1" t="s">
         <v>719</v>
       </c>
@@ -21026,7 +21062,7 @@
         <v>1165100.5900000001</v>
       </c>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A494" s="1" t="s">
         <v>721</v>
       </c>
@@ -21064,7 +21100,7 @@
         <v>12378.81</v>
       </c>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A495" s="1" t="s">
         <v>723</v>
       </c>
@@ -21102,7 +21138,7 @@
         <v>12150.1</v>
       </c>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A496" s="1" t="s">
         <v>725</v>
       </c>
@@ -21140,7 +21176,7 @@
         <v>45377.67</v>
       </c>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A497" s="1" t="s">
         <v>727</v>
       </c>
@@ -21178,7 +21214,7 @@
         <v>9802.14</v>
       </c>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A498" s="1" t="s">
         <v>729</v>
       </c>
@@ -21216,7 +21252,7 @@
         <v>3267.08</v>
       </c>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A499" s="1" t="s">
         <v>731</v>
       </c>
@@ -21254,7 +21290,7 @@
         <v>11181.4</v>
       </c>
     </row>
-    <row r="500" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A500" s="1" t="s">
         <v>733</v>
       </c>
@@ -21292,7 +21328,7 @@
         <v>79084.83</v>
       </c>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A501" s="1" t="s">
         <v>735</v>
       </c>
@@ -21330,7 +21366,7 @@
         <v>648.55999999999995</v>
       </c>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A502" s="1" t="s">
         <v>737</v>
       </c>
@@ -21368,7 +21404,7 @@
         <v>28343.53</v>
       </c>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A503" s="1" t="s">
         <v>739</v>
       </c>
@@ -21406,7 +21442,7 @@
         <v>915438.78</v>
       </c>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A504" s="1" t="s">
         <v>741</v>
       </c>
@@ -21444,7 +21480,7 @@
         <v>10066.86</v>
       </c>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A505" s="1" t="s">
         <v>743</v>
       </c>
@@ -21482,7 +21518,7 @@
         <v>2382</v>
       </c>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A506" s="1" t="s">
         <v>745</v>
       </c>
@@ -21520,7 +21556,7 @@
         <v>7076.39</v>
       </c>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A507" s="1" t="s">
         <v>747</v>
       </c>
@@ -21558,7 +21594,7 @@
         <v>17958.5</v>
       </c>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A508" s="1" t="s">
         <v>749</v>
       </c>
@@ -21596,7 +21632,7 @@
         <v>6474.24</v>
       </c>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A509" s="1" t="s">
         <v>751</v>
       </c>
@@ -21634,7 +21670,7 @@
         <v>3469.7</v>
       </c>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A510" s="1" t="s">
         <v>753</v>
       </c>
@@ -21672,7 +21708,7 @@
         <v>68371</v>
       </c>
     </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A511" s="1" t="s">
         <v>755</v>
       </c>
@@ -21710,7 +21746,7 @@
         <v>68371</v>
       </c>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A512" s="1" t="s">
         <v>757</v>
       </c>
@@ -21748,23 +21784,23 @@
         <v>-47299.360000000001</v>
       </c>
     </row>
-    <row r="513" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A513" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B513" s="8"/>
-      <c r="C513" s="8"/>
-      <c r="D513" s="8"/>
-      <c r="E513" s="8"/>
-      <c r="F513" s="8"/>
-      <c r="G513" s="8"/>
-      <c r="H513" s="8"/>
-      <c r="I513" s="8"/>
-      <c r="J513" s="8"/>
-      <c r="K513" s="8"/>
-      <c r="L513" s="8"/>
-    </row>
-    <row r="514" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A513" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B513" s="11"/>
+      <c r="C513" s="11"/>
+      <c r="D513" s="11"/>
+      <c r="E513" s="11"/>
+      <c r="F513" s="11"/>
+      <c r="G513" s="11"/>
+      <c r="H513" s="11"/>
+      <c r="I513" s="11"/>
+      <c r="J513" s="11"/>
+      <c r="K513" s="11"/>
+      <c r="L513" s="11"/>
+    </row>
+    <row r="514" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A514" s="1" t="s">
         <v>759</v>
       </c>
@@ -21802,7 +21838,7 @@
         <v>2331000</v>
       </c>
     </row>
-    <row r="515" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A515" s="1" t="s">
         <v>761</v>
       </c>
@@ -21840,7 +21876,7 @@
         <v>2331000</v>
       </c>
     </row>
-    <row r="516" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A516" s="1" t="s">
         <v>763</v>
       </c>
@@ -21878,7 +21914,7 @@
         <v>1871000</v>
       </c>
     </row>
-    <row r="517" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A517" s="1" t="s">
         <v>765</v>
       </c>
@@ -21916,11 +21952,11 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="518" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A518" s="11" t="s">
+    <row r="518" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A518" s="9" t="s">
         <v>767</v>
       </c>
-      <c r="B518" s="11"/>
+      <c r="B518" s="9"/>
       <c r="C518" s="3">
         <v>0</v>
       </c>
@@ -21952,39 +21988,39 @@
         <v>15073537.51</v>
       </c>
     </row>
-    <row r="519" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A519" s="9" t="s">
+    <row r="519" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A519" s="10" t="s">
         <v>768</v>
       </c>
-      <c r="B519" s="8"/>
-      <c r="C519" s="8"/>
-      <c r="D519" s="8"/>
-      <c r="E519" s="8"/>
-      <c r="F519" s="8"/>
-      <c r="G519" s="8"/>
-      <c r="H519" s="8"/>
-      <c r="I519" s="8"/>
-      <c r="J519" s="8"/>
-      <c r="K519" s="8"/>
-      <c r="L519" s="8"/>
-    </row>
-    <row r="520" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A520" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B520" s="8"/>
-      <c r="C520" s="8"/>
-      <c r="D520" s="8"/>
-      <c r="E520" s="8"/>
-      <c r="F520" s="8"/>
-      <c r="G520" s="8"/>
-      <c r="H520" s="8"/>
-      <c r="I520" s="8"/>
-      <c r="J520" s="8"/>
-      <c r="K520" s="8"/>
-      <c r="L520" s="8"/>
-    </row>
-    <row r="521" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B519" s="11"/>
+      <c r="C519" s="11"/>
+      <c r="D519" s="11"/>
+      <c r="E519" s="11"/>
+      <c r="F519" s="11"/>
+      <c r="G519" s="11"/>
+      <c r="H519" s="11"/>
+      <c r="I519" s="11"/>
+      <c r="J519" s="11"/>
+      <c r="K519" s="11"/>
+      <c r="L519" s="11"/>
+    </row>
+    <row r="520" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A520" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B520" s="11"/>
+      <c r="C520" s="11"/>
+      <c r="D520" s="11"/>
+      <c r="E520" s="11"/>
+      <c r="F520" s="11"/>
+      <c r="G520" s="11"/>
+      <c r="H520" s="11"/>
+      <c r="I520" s="11"/>
+      <c r="J520" s="11"/>
+      <c r="K520" s="11"/>
+      <c r="L520" s="11"/>
+    </row>
+    <row r="521" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A521" s="1" t="s">
         <v>769</v>
       </c>
@@ -22022,7 +22058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A522" s="1" t="s">
         <v>771</v>
       </c>
@@ -22060,23 +22096,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A523" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B523" s="8"/>
-      <c r="C523" s="8"/>
-      <c r="D523" s="8"/>
-      <c r="E523" s="8"/>
-      <c r="F523" s="8"/>
-      <c r="G523" s="8"/>
-      <c r="H523" s="8"/>
-      <c r="I523" s="8"/>
-      <c r="J523" s="8"/>
-      <c r="K523" s="8"/>
-      <c r="L523" s="8"/>
-    </row>
-    <row r="524" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A523" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B523" s="11"/>
+      <c r="C523" s="11"/>
+      <c r="D523" s="11"/>
+      <c r="E523" s="11"/>
+      <c r="F523" s="11"/>
+      <c r="G523" s="11"/>
+      <c r="H523" s="11"/>
+      <c r="I523" s="11"/>
+      <c r="J523" s="11"/>
+      <c r="K523" s="11"/>
+      <c r="L523" s="11"/>
+    </row>
+    <row r="524" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A524" s="1" t="s">
         <v>773</v>
       </c>
@@ -22114,7 +22150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A525" s="1" t="s">
         <v>775</v>
       </c>
@@ -22152,7 +22188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A526" s="1" t="s">
         <v>777</v>
       </c>
@@ -22190,7 +22226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A527" s="1" t="s">
         <v>779</v>
       </c>
@@ -22228,7 +22264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A528" s="1" t="s">
         <v>781</v>
       </c>
@@ -22266,7 +22302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A529" s="1" t="s">
         <v>783</v>
       </c>
@@ -22304,7 +22340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A530" s="1" t="s">
         <v>785</v>
       </c>
@@ -22342,7 +22378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A531" s="1" t="s">
         <v>787</v>
       </c>
@@ -22380,7 +22416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A532" s="1" t="s">
         <v>789</v>
       </c>
@@ -22418,7 +22454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A533" s="1" t="s">
         <v>791</v>
       </c>
@@ -22456,7 +22492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A534" s="1" t="s">
         <v>793</v>
       </c>
@@ -22494,7 +22530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A535" s="1" t="s">
         <v>795</v>
       </c>
@@ -22532,7 +22568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A536" s="1" t="s">
         <v>797</v>
       </c>
@@ -22570,7 +22606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A537" s="1" t="s">
         <v>799</v>
       </c>
@@ -22608,7 +22644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A538" s="1" t="s">
         <v>801</v>
       </c>
@@ -22646,7 +22682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A539" s="1" t="s">
         <v>803</v>
       </c>
@@ -22684,7 +22720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A540" s="1" t="s">
         <v>805</v>
       </c>
@@ -22722,7 +22758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A541" s="1" t="s">
         <v>807</v>
       </c>
@@ -22760,7 +22796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A542" s="1" t="s">
         <v>809</v>
       </c>
@@ -22798,7 +22834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A543" s="1" t="s">
         <v>811</v>
       </c>
@@ -22836,7 +22872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A544" s="1" t="s">
         <v>813</v>
       </c>
@@ -22874,7 +22910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A545" s="1" t="s">
         <v>815</v>
       </c>
@@ -22912,7 +22948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A546" s="1" t="s">
         <v>817</v>
       </c>
@@ -22950,7 +22986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A547" s="1" t="s">
         <v>819</v>
       </c>
@@ -22988,7 +23024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A548" s="1" t="s">
         <v>821</v>
       </c>
@@ -23026,7 +23062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A549" s="1" t="s">
         <v>823</v>
       </c>
@@ -23064,7 +23100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A550" s="1" t="s">
         <v>825</v>
       </c>
@@ -23102,7 +23138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A551" s="1" t="s">
         <v>827</v>
       </c>
@@ -23140,7 +23176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A552" s="1" t="s">
         <v>829</v>
       </c>
@@ -23178,7 +23214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A553" s="1" t="s">
         <v>831</v>
       </c>
@@ -23216,7 +23252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A554" s="1" t="s">
         <v>833</v>
       </c>
@@ -23254,7 +23290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A555" s="1" t="s">
         <v>835</v>
       </c>
@@ -23292,7 +23328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A556" s="1" t="s">
         <v>837</v>
       </c>
@@ -23330,7 +23366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A557" s="1" t="s">
         <v>839</v>
       </c>
@@ -23368,7 +23404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A558" s="1" t="s">
         <v>840</v>
       </c>
@@ -23406,7 +23442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A559" s="1" t="s">
         <v>842</v>
       </c>
@@ -23444,7 +23480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A560" s="1" t="s">
         <v>844</v>
       </c>
@@ -23482,7 +23518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A561" s="1" t="s">
         <v>846</v>
       </c>
@@ -23520,7 +23556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A562" s="1" t="s">
         <v>847</v>
       </c>
@@ -23558,7 +23594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A563" s="1" t="s">
         <v>848</v>
       </c>
@@ -23596,7 +23632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A564" s="1" t="s">
         <v>850</v>
       </c>
@@ -23634,7 +23670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A565" s="1" t="s">
         <v>852</v>
       </c>
@@ -23672,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A566" s="1" t="s">
         <v>854</v>
       </c>
@@ -23710,7 +23746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A567" s="1" t="s">
         <v>855</v>
       </c>
@@ -23748,7 +23784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A568" s="1" t="s">
         <v>856</v>
       </c>
@@ -23786,7 +23822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A569" s="1" t="s">
         <v>858</v>
       </c>
@@ -23824,7 +23860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A570" s="1" t="s">
         <v>860</v>
       </c>
@@ -23862,7 +23898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A571" s="1" t="s">
         <v>862</v>
       </c>
@@ -23900,7 +23936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A572" s="1" t="s">
         <v>864</v>
       </c>
@@ -23938,7 +23974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A573" s="1" t="s">
         <v>866</v>
       </c>
@@ -23976,7 +24012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A574" s="1" t="s">
         <v>868</v>
       </c>
@@ -24014,7 +24050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A575" s="1" t="s">
         <v>870</v>
       </c>
@@ -24052,7 +24088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A576" s="1" t="s">
         <v>872</v>
       </c>
@@ -24090,7 +24126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A577" s="1" t="s">
         <v>873</v>
       </c>
@@ -24128,7 +24164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A578" s="1" t="s">
         <v>875</v>
       </c>
@@ -24166,7 +24202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A579" s="1" t="s">
         <v>876</v>
       </c>
@@ -24204,7 +24240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A580" s="1" t="s">
         <v>878</v>
       </c>
@@ -24242,7 +24278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A581" s="1" t="s">
         <v>880</v>
       </c>
@@ -24280,7 +24316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A582" s="1" t="s">
         <v>882</v>
       </c>
@@ -24318,7 +24354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A583" s="1" t="s">
         <v>884</v>
       </c>
@@ -24356,23 +24392,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A584" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B584" s="8"/>
-      <c r="C584" s="8"/>
-      <c r="D584" s="8"/>
-      <c r="E584" s="8"/>
-      <c r="F584" s="8"/>
-      <c r="G584" s="8"/>
-      <c r="H584" s="8"/>
-      <c r="I584" s="8"/>
-      <c r="J584" s="8"/>
-      <c r="K584" s="8"/>
-      <c r="L584" s="8"/>
-    </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A584" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B584" s="11"/>
+      <c r="C584" s="11"/>
+      <c r="D584" s="11"/>
+      <c r="E584" s="11"/>
+      <c r="F584" s="11"/>
+      <c r="G584" s="11"/>
+      <c r="H584" s="11"/>
+      <c r="I584" s="11"/>
+      <c r="J584" s="11"/>
+      <c r="K584" s="11"/>
+      <c r="L584" s="11"/>
+    </row>
+    <row r="585" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A585" s="1" t="s">
         <v>886</v>
       </c>
@@ -24410,7 +24446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A586" s="1" t="s">
         <v>888</v>
       </c>
@@ -24448,7 +24484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A587" s="1" t="s">
         <v>890</v>
       </c>
@@ -24486,7 +24522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A588" s="1" t="s">
         <v>892</v>
       </c>
@@ -24524,7 +24560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A589" s="1" t="s">
         <v>894</v>
       </c>
@@ -24562,7 +24598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A590" s="1" t="s">
         <v>896</v>
       </c>
@@ -24600,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A591" s="1" t="s">
         <v>898</v>
       </c>
@@ -24638,7 +24674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A592" s="1" t="s">
         <v>900</v>
       </c>
@@ -24676,7 +24712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A593" s="1" t="s">
         <v>902</v>
       </c>
@@ -24714,7 +24750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A594" s="1" t="s">
         <v>904</v>
       </c>
@@ -24752,7 +24788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>906</v>
       </c>
@@ -24790,7 +24826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A596" s="1" t="s">
         <v>908</v>
       </c>
@@ -24828,7 +24864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A597" s="1" t="s">
         <v>910</v>
       </c>
@@ -24866,7 +24902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A598" s="1" t="s">
         <v>912</v>
       </c>
@@ -24904,7 +24940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A599" s="1" t="s">
         <v>914</v>
       </c>
@@ -24942,7 +24978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A600" s="1" t="s">
         <v>916</v>
       </c>
@@ -24980,7 +25016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A601" s="1" t="s">
         <v>918</v>
       </c>
@@ -25018,7 +25054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A602" s="1" t="s">
         <v>920</v>
       </c>
@@ -25056,7 +25092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A603" s="1" t="s">
         <v>922</v>
       </c>
@@ -25094,7 +25130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A604" s="1" t="s">
         <v>924</v>
       </c>
@@ -25132,7 +25168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A605" s="1" t="s">
         <v>926</v>
       </c>
@@ -25170,7 +25206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A606" s="1" t="s">
         <v>928</v>
       </c>
@@ -25208,7 +25244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A607" s="1" t="s">
         <v>930</v>
       </c>
@@ -25246,7 +25282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A608" s="1" t="s">
         <v>932</v>
       </c>
@@ -25284,7 +25320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
         <v>934</v>
       </c>
@@ -25322,7 +25358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
         <v>936</v>
       </c>
@@ -25360,7 +25396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A611" s="1" t="s">
         <v>938</v>
       </c>
@@ -25398,7 +25434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A612" s="1" t="s">
         <v>940</v>
       </c>
@@ -25436,7 +25472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A613" s="1" t="s">
         <v>942</v>
       </c>
@@ -25474,7 +25510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A614" s="1" t="s">
         <v>944</v>
       </c>
@@ -25512,7 +25548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A615" s="1" t="s">
         <v>946</v>
       </c>
@@ -25550,7 +25586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A616" s="1" t="s">
         <v>948</v>
       </c>
@@ -25588,7 +25624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A617" s="1" t="s">
         <v>950</v>
       </c>
@@ -25626,7 +25662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A618" s="1" t="s">
         <v>952</v>
       </c>
@@ -25664,7 +25700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
         <v>953</v>
       </c>
@@ -25702,7 +25738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
         <v>954</v>
       </c>
@@ -25740,7 +25776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A621" s="1" t="s">
         <v>956</v>
       </c>
@@ -25778,7 +25814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A622" s="1" t="s">
         <v>958</v>
       </c>
@@ -25816,7 +25852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A623" s="1" t="s">
         <v>960</v>
       </c>
@@ -25854,7 +25890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A624" s="1" t="s">
         <v>961</v>
       </c>
@@ -25892,7 +25928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A625" s="1" t="s">
         <v>963</v>
       </c>
@@ -25930,7 +25966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A626" s="1" t="s">
         <v>965</v>
       </c>
@@ -25968,7 +26004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A627" s="1" t="s">
         <v>967</v>
       </c>
@@ -26006,7 +26042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>968</v>
       </c>
@@ -26044,7 +26080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A629" s="1" t="s">
         <v>969</v>
       </c>
@@ -26082,7 +26118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>971</v>
       </c>
@@ -26120,7 +26156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A631" s="1" t="s">
         <v>973</v>
       </c>
@@ -26158,7 +26194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A632" s="1" t="s">
         <v>975</v>
       </c>
@@ -26196,7 +26232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A633" s="1" t="s">
         <v>977</v>
       </c>
@@ -26234,7 +26270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A634" s="1" t="s">
         <v>978</v>
       </c>
@@ -26272,7 +26308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A635" s="1" t="s">
         <v>979</v>
       </c>
@@ -26310,7 +26346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A636" s="1" t="s">
         <v>980</v>
       </c>
@@ -26348,7 +26384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A637" s="1" t="s">
         <v>981</v>
       </c>
@@ -26386,7 +26422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A638" s="1" t="s">
         <v>982</v>
       </c>
@@ -26424,7 +26460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A639" s="1" t="s">
         <v>983</v>
       </c>
@@ -26462,7 +26498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A640" s="1" t="s">
         <v>984</v>
       </c>
@@ -26500,23 +26536,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A641" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B641" s="8"/>
-      <c r="C641" s="8"/>
-      <c r="D641" s="8"/>
-      <c r="E641" s="8"/>
-      <c r="F641" s="8"/>
-      <c r="G641" s="8"/>
-      <c r="H641" s="8"/>
-      <c r="I641" s="8"/>
-      <c r="J641" s="8"/>
-      <c r="K641" s="8"/>
-      <c r="L641" s="8"/>
-    </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A641" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B641" s="11"/>
+      <c r="C641" s="11"/>
+      <c r="D641" s="11"/>
+      <c r="E641" s="11"/>
+      <c r="F641" s="11"/>
+      <c r="G641" s="11"/>
+      <c r="H641" s="11"/>
+      <c r="I641" s="11"/>
+      <c r="J641" s="11"/>
+      <c r="K641" s="11"/>
+      <c r="L641" s="11"/>
+    </row>
+    <row r="642" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A642" s="1" t="s">
         <v>986</v>
       </c>
@@ -26554,7 +26590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A643" s="1" t="s">
         <v>988</v>
       </c>
@@ -26592,7 +26628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A644" s="1" t="s">
         <v>990</v>
       </c>
@@ -26630,7 +26666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A645" s="1" t="s">
         <v>992</v>
       </c>
@@ -26668,7 +26704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A646" s="1" t="s">
         <v>994</v>
       </c>
@@ -26706,7 +26742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A647" s="1" t="s">
         <v>996</v>
       </c>
@@ -26744,7 +26780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A648" s="1" t="s">
         <v>998</v>
       </c>
@@ -26782,7 +26818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A649" s="1" t="s">
         <v>1000</v>
       </c>
@@ -26820,7 +26856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A650" s="1" t="s">
         <v>1002</v>
       </c>
@@ -26858,7 +26894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A651" s="1" t="s">
         <v>1004</v>
       </c>
@@ -26896,7 +26932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A652" s="1" t="s">
         <v>1006</v>
       </c>
@@ -26934,7 +26970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A653" s="1" t="s">
         <v>1008</v>
       </c>
@@ -26972,7 +27008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A654" s="1" t="s">
         <v>1010</v>
       </c>
@@ -27010,7 +27046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A655" s="1" t="s">
         <v>1012</v>
       </c>
@@ -27048,7 +27084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A656" s="1" t="s">
         <v>1014</v>
       </c>
@@ -27086,7 +27122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A657" s="1" t="s">
         <v>1016</v>
       </c>
@@ -27124,7 +27160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A658" s="1" t="s">
         <v>1018</v>
       </c>
@@ -27162,7 +27198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A659" s="1" t="s">
         <v>1020</v>
       </c>
@@ -27200,7 +27236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A660" s="1" t="s">
         <v>1022</v>
       </c>
@@ -27238,7 +27274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A661" s="1" t="s">
         <v>1024</v>
       </c>
@@ -27276,7 +27312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A662" s="1" t="s">
         <v>1026</v>
       </c>
@@ -27314,7 +27350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A663" s="1" t="s">
         <v>1028</v>
       </c>
@@ -27352,7 +27388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A664" s="1" t="s">
         <v>1030</v>
       </c>
@@ -27390,7 +27426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A665" s="1" t="s">
         <v>1032</v>
       </c>
@@ -27428,7 +27464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A666" s="1" t="s">
         <v>1034</v>
       </c>
@@ -27466,7 +27502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A667" s="1" t="s">
         <v>1036</v>
       </c>
@@ -27504,7 +27540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A668" s="1" t="s">
         <v>1038</v>
       </c>
@@ -27542,7 +27578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A669" s="1" t="s">
         <v>1040</v>
       </c>
@@ -27580,7 +27616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A670" s="1" t="s">
         <v>1042</v>
       </c>
@@ -27618,7 +27654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A671" s="1" t="s">
         <v>1044</v>
       </c>
@@ -27656,7 +27692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A672" s="1" t="s">
         <v>1046</v>
       </c>
@@ -27694,7 +27730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A673" s="1" t="s">
         <v>1048</v>
       </c>
@@ -27732,7 +27768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A674" s="1" t="s">
         <v>1050</v>
       </c>
@@ -27770,7 +27806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A675" s="1" t="s">
         <v>1052</v>
       </c>
@@ -27808,7 +27844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A676" s="1" t="s">
         <v>1054</v>
       </c>
@@ -27846,7 +27882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A677" s="1" t="s">
         <v>1056</v>
       </c>
@@ -27884,7 +27920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A678" s="1" t="s">
         <v>1058</v>
       </c>
@@ -27922,7 +27958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A679" s="1" t="s">
         <v>1060</v>
       </c>
@@ -27960,7 +27996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A680" s="1" t="s">
         <v>1061</v>
       </c>
@@ -27998,7 +28034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A681" s="1" t="s">
         <v>1063</v>
       </c>
@@ -28036,7 +28072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A682" s="1" t="s">
         <v>1065</v>
       </c>
@@ -28074,7 +28110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A683" s="1" t="s">
         <v>1067</v>
       </c>
@@ -28112,7 +28148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A684" s="1" t="s">
         <v>1069</v>
       </c>
@@ -28150,7 +28186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A685" s="1" t="s">
         <v>1070</v>
       </c>
@@ -28188,7 +28224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A686" s="1" t="s">
         <v>1071</v>
       </c>
@@ -28226,7 +28262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A687" s="1" t="s">
         <v>1073</v>
       </c>
@@ -28264,7 +28300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A688" s="1" t="s">
         <v>1075</v>
       </c>
@@ -28302,7 +28338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A689" s="1" t="s">
         <v>1077</v>
       </c>
@@ -28340,7 +28376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A690" s="1" t="s">
         <v>1079</v>
       </c>
@@ -28378,7 +28414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A691" s="1" t="s">
         <v>1081</v>
       </c>
@@ -28416,7 +28452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A692" s="1" t="s">
         <v>1083</v>
       </c>
@@ -28454,7 +28490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A693" s="1" t="s">
         <v>1085</v>
       </c>
@@ -28492,7 +28528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A694" s="1" t="s">
         <v>1087</v>
       </c>
@@ -28530,7 +28566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A695" s="1" t="s">
         <v>1088</v>
       </c>
@@ -28568,7 +28604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A696" s="1" t="s">
         <v>1089</v>
       </c>
@@ -28606,7 +28642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A697" s="1" t="s">
         <v>1091</v>
       </c>
@@ -28644,11 +28680,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A698" s="11" t="s">
+    <row r="698" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A698" s="9" t="s">
         <v>1093</v>
       </c>
-      <c r="B698" s="11"/>
+      <c r="B698" s="9"/>
       <c r="C698" s="3">
         <v>0</v>
       </c>
@@ -28680,11 +28716,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A699" s="11" t="s">
+    <row r="699" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A699" s="9" t="s">
         <v>1094</v>
       </c>
-      <c r="B699" s="11"/>
+      <c r="B699" s="9"/>
       <c r="C699" s="3">
         <v>12649890.07</v>
       </c>
@@ -28718,6 +28754,81 @@
     </row>
   </sheetData>
   <mergeCells count="82">
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A15:L15"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:L21"/>
+    <mergeCell ref="A22:L22"/>
+    <mergeCell ref="A26:L26"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A38:L38"/>
+    <mergeCell ref="A43:L43"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:L51"/>
+    <mergeCell ref="A52:L52"/>
+    <mergeCell ref="A71:L71"/>
+    <mergeCell ref="A79:L79"/>
+    <mergeCell ref="A83:L83"/>
+    <mergeCell ref="A89:L89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:L94"/>
+    <mergeCell ref="A95:L95"/>
+    <mergeCell ref="A134:L134"/>
+    <mergeCell ref="A139:L139"/>
+    <mergeCell ref="A144:L144"/>
+    <mergeCell ref="A174:L174"/>
+    <mergeCell ref="A178:L178"/>
+    <mergeCell ref="A182:L182"/>
+    <mergeCell ref="A187:L187"/>
+    <mergeCell ref="A191:L191"/>
+    <mergeCell ref="A196:L196"/>
+    <mergeCell ref="A201:L201"/>
+    <mergeCell ref="A205:L205"/>
+    <mergeCell ref="A215:L215"/>
+    <mergeCell ref="A228:L228"/>
+    <mergeCell ref="A232:L232"/>
+    <mergeCell ref="A237:L237"/>
+    <mergeCell ref="A242:L242"/>
+    <mergeCell ref="A248:L248"/>
+    <mergeCell ref="A253:L253"/>
+    <mergeCell ref="A258:L258"/>
+    <mergeCell ref="A263:L263"/>
+    <mergeCell ref="A267:L267"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:L273"/>
+    <mergeCell ref="A274:L274"/>
+    <mergeCell ref="A279:L279"/>
+    <mergeCell ref="A285:L285"/>
+    <mergeCell ref="A301:L301"/>
+    <mergeCell ref="A309:L309"/>
+    <mergeCell ref="A322:L322"/>
+    <mergeCell ref="A327:L327"/>
+    <mergeCell ref="A331:L331"/>
+    <mergeCell ref="A342:L342"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A347:L347"/>
+    <mergeCell ref="A348:L348"/>
+    <mergeCell ref="A368:L368"/>
+    <mergeCell ref="A375:L375"/>
+    <mergeCell ref="A381:L381"/>
+    <mergeCell ref="A385:L385"/>
+    <mergeCell ref="A389:L389"/>
+    <mergeCell ref="A394:L394"/>
+    <mergeCell ref="A399:L399"/>
+    <mergeCell ref="A403:L403"/>
+    <mergeCell ref="A415:L415"/>
+    <mergeCell ref="A420:L420"/>
+    <mergeCell ref="A426:L426"/>
+    <mergeCell ref="A435:L435"/>
+    <mergeCell ref="A439:L439"/>
+    <mergeCell ref="A443:L443"/>
+    <mergeCell ref="A448:B448"/>
+    <mergeCell ref="A449:L449"/>
+    <mergeCell ref="A450:L450"/>
+    <mergeCell ref="A456:L456"/>
+    <mergeCell ref="A513:L513"/>
+    <mergeCell ref="A518:B518"/>
     <mergeCell ref="A698:B698"/>
     <mergeCell ref="A699:B699"/>
     <mergeCell ref="A519:L519"/>
@@ -28725,83 +28836,76 @@
     <mergeCell ref="A523:L523"/>
     <mergeCell ref="A584:L584"/>
     <mergeCell ref="A641:L641"/>
-    <mergeCell ref="A449:L449"/>
-    <mergeCell ref="A450:L450"/>
-    <mergeCell ref="A456:L456"/>
-    <mergeCell ref="A513:L513"/>
-    <mergeCell ref="A518:B518"/>
-    <mergeCell ref="A426:L426"/>
-    <mergeCell ref="A435:L435"/>
-    <mergeCell ref="A439:L439"/>
-    <mergeCell ref="A443:L443"/>
-    <mergeCell ref="A448:B448"/>
-    <mergeCell ref="A394:L394"/>
-    <mergeCell ref="A399:L399"/>
-    <mergeCell ref="A403:L403"/>
-    <mergeCell ref="A415:L415"/>
-    <mergeCell ref="A420:L420"/>
-    <mergeCell ref="A368:L368"/>
-    <mergeCell ref="A375:L375"/>
-    <mergeCell ref="A381:L381"/>
-    <mergeCell ref="A385:L385"/>
-    <mergeCell ref="A389:L389"/>
-    <mergeCell ref="A331:L331"/>
-    <mergeCell ref="A342:L342"/>
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="A347:L347"/>
-    <mergeCell ref="A348:L348"/>
-    <mergeCell ref="A285:L285"/>
-    <mergeCell ref="A301:L301"/>
-    <mergeCell ref="A309:L309"/>
-    <mergeCell ref="A322:L322"/>
-    <mergeCell ref="A327:L327"/>
-    <mergeCell ref="A267:L267"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:L273"/>
-    <mergeCell ref="A274:L274"/>
-    <mergeCell ref="A279:L279"/>
-    <mergeCell ref="A242:L242"/>
-    <mergeCell ref="A248:L248"/>
-    <mergeCell ref="A253:L253"/>
-    <mergeCell ref="A258:L258"/>
-    <mergeCell ref="A263:L263"/>
-    <mergeCell ref="A205:L205"/>
-    <mergeCell ref="A215:L215"/>
-    <mergeCell ref="A228:L228"/>
-    <mergeCell ref="A232:L232"/>
-    <mergeCell ref="A237:L237"/>
-    <mergeCell ref="A182:L182"/>
-    <mergeCell ref="A187:L187"/>
-    <mergeCell ref="A191:L191"/>
-    <mergeCell ref="A196:L196"/>
-    <mergeCell ref="A201:L201"/>
-    <mergeCell ref="A134:L134"/>
-    <mergeCell ref="A139:L139"/>
-    <mergeCell ref="A144:L144"/>
-    <mergeCell ref="A174:L174"/>
-    <mergeCell ref="A178:L178"/>
-    <mergeCell ref="A83:L83"/>
-    <mergeCell ref="A89:L89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:L94"/>
-    <mergeCell ref="A95:L95"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:L51"/>
-    <mergeCell ref="A52:L52"/>
-    <mergeCell ref="A71:L71"/>
-    <mergeCell ref="A79:L79"/>
-    <mergeCell ref="A22:L22"/>
-    <mergeCell ref="A26:L26"/>
-    <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A38:L38"/>
-    <mergeCell ref="A43:L43"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A15:L15"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:L21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B35AD86-B154-47BB-B95D-B369DAD71F68}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>